--- a/ASHRAE901_ApartmentHighRise_STD2019_GreatFallsTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_GreatFallsTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1871.11</t>
+          <t>2122.45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1214.16</t>
+          <t>2226.45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>472.23</t>
+          <t>756.76</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1021.70</t>
+          <t>1857.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>753.65</t>
+          <t>1360.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>746.50</t>
+          <t>1350.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1220.16</t>
+          <t>1385.19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1404.31</t>
+          <t>1469.20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2789.10</t>
+          <t>2973.28</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2049.65</t>
+          <t>2879.88</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2077.55</t>
+          <t>2183.64</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1498.44</t>
+          <t>2091.76</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1181.29</t>
+          <t>1658.21</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1194.37</t>
+          <t>1644.44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1541.89</t>
+          <t>1610.11</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1532.70</t>
+          <t>1608.17</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2808.75</t>
+          <t>2982.72</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2168.55</t>
+          <t>2911.28</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2091.96</t>
+          <t>2161.72</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1585.31</t>
+          <t>2100.56</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1242.60</t>
+          <t>1727.98</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1232.58</t>
+          <t>1710.62</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1557.42</t>
+          <t>1615.96</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1556.56</t>
+          <t>1614.22</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2883.87</t>
+          <t>2987.12</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2176.21</t>
+          <t>2929.68</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2095.98</t>
+          <t>2160.49</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1588.74</t>
+          <t>2126.83</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1248.06</t>
+          <t>1725.84</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1238.00</t>
+          <t>1668.75</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1572.29</t>
+          <t>1615.43</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1563.00</t>
+          <t>1615.72</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2887.06</t>
+          <t>2984.94</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2175.78</t>
+          <t>2935.03</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2098.62</t>
+          <t>2157.28</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1586.69</t>
+          <t>2126.16</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1248.90</t>
+          <t>1684.33</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1238.88</t>
+          <t>1671.04</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1575.49</t>
+          <t>1594.09</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1566.43</t>
+          <t>1601.25</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2837.83</t>
+          <t>2982.59</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2172.61</t>
+          <t>2902.92</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2110.61</t>
+          <t>2155.66</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1583.17</t>
+          <t>2127.23</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1248.47</t>
+          <t>1685.68</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1238.57</t>
+          <t>1672.49</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1577.46</t>
+          <t>1598.22</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1568.55</t>
+          <t>1586.29</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2840.72</t>
+          <t>2940.92</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2168.23</t>
+          <t>2903.75</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2113.40</t>
+          <t>2154.00</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1585.15</t>
+          <t>2131.07</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1248.14</t>
+          <t>1688.27</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1238.51</t>
+          <t>1675.18</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1579.42</t>
+          <t>1602.69</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1570.64</t>
+          <t>1590.80</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2847.78</t>
+          <t>2948.27</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1928.08</t>
+          <t>2909.68</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2118.51</t>
+          <t>2162.75</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1594.49</t>
+          <t>2141.13</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1251.91</t>
+          <t>1692.36</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1243.01</t>
+          <t>1679.49</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1585.15</t>
+          <t>1610.99</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1576.82</t>
+          <t>1599.19</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3008.10</t>
+          <t>3038.80</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1793.53</t>
+          <t>3079.19</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2170.35</t>
+          <t>2268.22</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1661.28</t>
+          <t>2231.10</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1311.81</t>
+          <t>1770.96</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1304.11</t>
+          <t>1758.37</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1632.88</t>
+          <t>1676.70</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1622.22</t>
+          <t>1664.25</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3735.59</t>
+          <t>3841.58</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2407.61</t>
+          <t>3682.51</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2863.90</t>
+          <t>3008.43</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1745.85</t>
+          <t>2549.74</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1534.55</t>
+          <t>2165.54</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1570.42</t>
+          <t>2135.76</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2180.82</t>
+          <t>2251.14</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2175.70</t>
+          <t>2249.46</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1753.75</t>
+          <t>2141.54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>192.63</t>
+          <t>2309.89</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>343.57</t>
+          <t>787.19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>138.15</t>
+          <t>1937.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>175.86</t>
+          <t>1415.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>177.31</t>
+          <t>1404.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1134.32</t>
+          <t>1366.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1156.59</t>
+          <t>1403.66</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2172.99</t>
+          <t>3001.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2535.74</t>
+          <t>3035.15</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1569.28</t>
+          <t>2168.48</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1558.14</t>
+          <t>2204.79</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1418.10</t>
+          <t>1761.56</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1406.33</t>
+          <t>1746.23</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1093.19</t>
+          <t>1581.48</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1085.98</t>
+          <t>1569.47</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2223.90</t>
+          <t>2997.78</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2569.80</t>
+          <t>3046.04</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1594.97</t>
+          <t>2154.50</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1833.76</t>
+          <t>2206.88</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1440.24</t>
+          <t>1783.42</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1424.31</t>
+          <t>1768.43</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1155.91</t>
+          <t>1602.45</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1254.14</t>
+          <t>1575.65</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2232.11</t>
+          <t>2984.75</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2574.93</t>
+          <t>3049.17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1599.80</t>
+          <t>2158.70</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1835.59</t>
+          <t>2247.89</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1445.24</t>
+          <t>1789.07</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1429.39</t>
+          <t>1779.38</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1305.91</t>
+          <t>1610.40</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1379.80</t>
+          <t>1591.38</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2235.52</t>
+          <t>2975.94</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2571.69</t>
+          <t>3049.36</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1595.68</t>
+          <t>2153.96</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1831.66</t>
+          <t>2246.76</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1445.22</t>
+          <t>1728.06</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1429.38</t>
+          <t>1712.87</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1359.27</t>
+          <t>1599.72</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1351.31</t>
+          <t>1600.87</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2232.47</t>
+          <t>2969.84</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2564.10</t>
+          <t>3049.26</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1848.45</t>
+          <t>2151.82</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1782.39</t>
+          <t>2246.89</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1442.45</t>
+          <t>1726.21</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1426.79</t>
+          <t>1711.34</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1359.30</t>
+          <t>1591.30</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1351.39</t>
+          <t>1581.86</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2225.48</t>
+          <t>2977.34</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2554.48</t>
+          <t>3050.25</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>1836.53</t>
+          <t>2149.46</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1184.68</t>
+          <t>2248.88</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1438.99</t>
+          <t>1736.22</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1423.84</t>
+          <t>1721.27</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1358.11</t>
+          <t>1585.87</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1350.22</t>
+          <t>1573.86</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2541.39</t>
+          <t>2982.60</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2545.10</t>
+          <t>3056.99</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>1834.49</t>
+          <t>2162.52</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>573.58</t>
+          <t>2256.88</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1439.32</t>
+          <t>1746.96</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1246.97</t>
+          <t>1732.13</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1358.49</t>
+          <t>1595.89</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1350.59</t>
+          <t>1583.00</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2638.67</t>
+          <t>3071.43</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>1180.79</t>
+          <t>3296.94</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>1872.58</t>
+          <t>2298.69</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>772.87</t>
+          <t>2340.67</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1506.41</t>
+          <t>1831.47</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1388.39</t>
+          <t>1816.63</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1400.43</t>
+          <t>1670.10</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1391.91</t>
+          <t>1655.66</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>2865.76</t>
+          <t>3752.22</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2353.12</t>
+          <t>3870.56</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2170.10</t>
+          <t>3017.95</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>1853.91</t>
+          <t>2691.00</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1871.83</t>
+          <t>2273.67</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1842.22</t>
+          <t>2241.89</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1821.94</t>
+          <t>2291.62</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1815.52</t>
+          <t>2288.06</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1505.47</t>
+          <t>2151.93</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1511.13</t>
+          <t>2280.70</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>325.82</t>
+          <t>681.17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1286.18</t>
+          <t>1900.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>933.40</t>
+          <t>1402.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>927.22</t>
+          <t>1390.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>956.60</t>
+          <t>1385.64</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>978.48</t>
+          <t>1426.16</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2248.98</t>
+          <t>2937.08</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2129.49</t>
+          <t>3029.55</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1654.02</t>
+          <t>2135.51</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1546.02</t>
+          <t>2143.59</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1184.35</t>
+          <t>1699.82</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1178.58</t>
+          <t>1685.05</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1122.92</t>
+          <t>1555.38</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1112.24</t>
+          <t>1548.23</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2280.60</t>
+          <t>2946.85</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2161.06</t>
+          <t>3050.18</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1674.44</t>
+          <t>2148.25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1580.03</t>
+          <t>2147.60</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1212.51</t>
+          <t>1712.53</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1203.26</t>
+          <t>1701.95</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1140.95</t>
+          <t>1561.94</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1176.26</t>
+          <t>1552.41</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2288.42</t>
+          <t>2951.40</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2168.91</t>
+          <t>3065.59</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1673.78</t>
+          <t>2156.29</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1585.42</t>
+          <t>2186.32</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1217.37</t>
+          <t>1718.61</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1208.14</t>
+          <t>1712.17</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1155.11</t>
+          <t>1551.01</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1217.69</t>
+          <t>1540.05</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2294.15</t>
+          <t>2958.10</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2169.13</t>
+          <t>3060.15</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1678.69</t>
+          <t>2153.74</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1582.92</t>
+          <t>2189.61</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1211.37</t>
+          <t>1727.28</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1208.27</t>
+          <t>1712.59</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1140.64</t>
+          <t>1540.36</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1174.79</t>
+          <t>1530.19</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2294.77</t>
+          <t>2958.49</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2166.20</t>
+          <t>3056.30</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1687.92</t>
+          <t>2151.04</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1579.75</t>
+          <t>2198.81</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1192.84</t>
+          <t>1727.65</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1183.73</t>
+          <t>1715.95</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1131.51</t>
+          <t>1538.59</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1129.08</t>
+          <t>1528.23</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2213.40</t>
+          <t>2960.90</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2165.08</t>
+          <t>3056.27</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1691.33</t>
+          <t>2151.67</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1581.66</t>
+          <t>2210.50</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1176.74</t>
+          <t>1739.30</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1167.78</t>
+          <t>1726.74</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1130.85</t>
+          <t>1544.10</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1127.31</t>
+          <t>1530.46</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2199.08</t>
+          <t>2967.86</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2170.60</t>
+          <t>3059.90</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1700.04</t>
+          <t>2163.23</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1594.45</t>
+          <t>2220.88</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1183.87</t>
+          <t>1749.56</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1182.66</t>
+          <t>1734.55</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1128.64</t>
+          <t>1554.55</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1133.52</t>
+          <t>1541.16</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2315.62</t>
+          <t>3058.94</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2318.70</t>
+          <t>3183.13</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1741.14</t>
+          <t>2311.33</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1681.96</t>
+          <t>2302.52</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1269.67</t>
+          <t>1826.75</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1276.05</t>
+          <t>1811.72</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1215.32</t>
+          <t>1635.90</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1209.29</t>
+          <t>1627.00</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3154.62</t>
+          <t>3889.05</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3029.29</t>
+          <t>3899.48</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2476.03</t>
+          <t>3053.67</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2193.33</t>
+          <t>2756.80</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1733.65</t>
+          <t>2246.49</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1712.86</t>
+          <t>2209.00</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1815.07</t>
+          <t>2304.55</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1817.43</t>
+          <t>2303.10</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1481.14</t>
+          <t>2048.03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1549.41</t>
+          <t>2208.71</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>269.05</t>
+          <t>572.15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1330.60</t>
+          <t>1900.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>968.11</t>
+          <t>1383.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>960.72</t>
+          <t>1372.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>920.86</t>
+          <t>1343.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>943.96</t>
+          <t>1372.06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2083.96</t>
+          <t>2809.81</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2271.25</t>
+          <t>2938.10</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1598.03</t>
+          <t>2119.47</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1615.25</t>
+          <t>2152.26</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1227.80</t>
+          <t>1681.29</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1221.92</t>
+          <t>1670.44</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1054.27</t>
+          <t>1484.97</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1070.33</t>
+          <t>1476.95</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2100.34</t>
+          <t>2829.42</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2315.35</t>
+          <t>2942.49</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1576.40</t>
+          <t>2121.47</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1637.07</t>
+          <t>2165.99</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1248.98</t>
+          <t>1691.82</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1241.24</t>
+          <t>1679.67</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1105.90</t>
+          <t>1495.33</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1125.53</t>
+          <t>1485.52</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2105.87</t>
+          <t>2827.86</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2319.17</t>
+          <t>2942.78</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1573.51</t>
+          <t>2108.55</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1638.89</t>
+          <t>2205.80</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1252.40</t>
+          <t>1696.61</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1243.15</t>
+          <t>1694.52</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1119.13</t>
+          <t>1501.22</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1131.07</t>
+          <t>1490.82</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2105.64</t>
+          <t>2856.21</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2320.08</t>
+          <t>2959.41</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1573.27</t>
+          <t>2100.33</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1638.48</t>
+          <t>2214.49</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1251.04</t>
+          <t>1708.55</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1241.97</t>
+          <t>1697.60</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1121.11</t>
+          <t>1488.02</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1133.35</t>
+          <t>1481.33</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2107.23</t>
+          <t>2853.28</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2320.27</t>
+          <t>2965.20</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1580.92</t>
+          <t>2100.63</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1637.46</t>
+          <t>2215.29</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1247.23</t>
+          <t>1715.18</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1239.12</t>
+          <t>1699.46</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1116.83</t>
+          <t>1491.15</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1125.66</t>
+          <t>1479.71</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2109.21</t>
+          <t>2853.76</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2321.01</t>
+          <t>2970.60</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1582.17</t>
+          <t>2111.54</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1644.40</t>
+          <t>2216.57</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1245.52</t>
+          <t>1720.75</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1236.53</t>
+          <t>1706.57</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1111.19</t>
+          <t>1498.20</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1118.12</t>
+          <t>1483.10</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2115.67</t>
+          <t>2860.57</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2326.47</t>
+          <t>2977.64</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1587.71</t>
+          <t>2127.42</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1655.80</t>
+          <t>2224.39</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1249.94</t>
+          <t>1723.46</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1240.91</t>
+          <t>1718.24</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1116.34</t>
+          <t>1524.78</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1124.32</t>
+          <t>1499.24</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2195.55</t>
+          <t>2945.17</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2348.00</t>
+          <t>3058.59</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1619.51</t>
+          <t>2245.72</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1734.53</t>
+          <t>2308.53</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1321.34</t>
+          <t>1791.83</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1313.14</t>
+          <t>1786.99</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1151.69</t>
+          <t>1607.00</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1158.29</t>
+          <t>1595.68</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2950.34</t>
+          <t>3714.96</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3016.39</t>
+          <t>3722.72</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2218.84</t>
+          <t>2945.10</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2151.05</t>
+          <t>2773.57</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1681.15</t>
+          <t>2213.17</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1658.00</t>
+          <t>2184.88</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1642.53</t>
+          <t>2227.69</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1642.70</t>
+          <t>2226.18</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1630.28</t>
+          <t>2016.28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1837.69</t>
+          <t>2234.29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>187.20</t>
+          <t>810.97</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1533.80</t>
+          <t>1919.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1093.58</t>
+          <t>1402.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1084.77</t>
+          <t>1392.04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1014.46</t>
+          <t>1279.72</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1051.42</t>
+          <t>1309.51</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2315.28</t>
+          <t>2707.45</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2520.99</t>
+          <t>2928.55</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1774.53</t>
+          <t>2089.29</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1819.57</t>
+          <t>2127.11</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1364.26</t>
+          <t>1689.18</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1359.50</t>
+          <t>1675.15</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1144.93</t>
+          <t>1439.76</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1137.66</t>
+          <t>1428.49</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2329.45</t>
+          <t>2714.75</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2526.79</t>
+          <t>2935.71</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1757.05</t>
+          <t>2066.77</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1842.94</t>
+          <t>2131.62</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1378.78</t>
+          <t>1694.51</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1367.65</t>
+          <t>1680.55</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1159.45</t>
+          <t>1450.29</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1156.99</t>
+          <t>1437.62</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2330.39</t>
+          <t>2720.72</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2523.28</t>
+          <t>2941.38</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1755.74</t>
+          <t>2070.09</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1844.63</t>
+          <t>2176.97</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1383.37</t>
+          <t>1698.89</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1372.41</t>
+          <t>1694.74</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1173.57</t>
+          <t>1457.13</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1163.84</t>
+          <t>1444.04</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2329.07</t>
+          <t>2725.59</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2518.91</t>
+          <t>2946.11</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1756.49</t>
+          <t>2070.57</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1844.46</t>
+          <t>2184.08</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1385.82</t>
+          <t>1712.78</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1374.90</t>
+          <t>1699.26</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1177.97</t>
+          <t>1462.14</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1168.19</t>
+          <t>1449.03</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2325.17</t>
+          <t>2729.82</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2514.76</t>
+          <t>2950.31</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1765.01</t>
+          <t>2071.63</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1843.89</t>
+          <t>2190.24</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1387.16</t>
+          <t>1716.71</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1376.11</t>
+          <t>1703.23</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1181.23</t>
+          <t>1466.42</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1171.34</t>
+          <t>1453.34</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2325.54</t>
+          <t>2734.31</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2516.50</t>
+          <t>2954.94</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1766.97</t>
+          <t>2073.53</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1851.37</t>
+          <t>2196.44</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1388.47</t>
+          <t>1721.11</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1377.90</t>
+          <t>1707.67</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1184.67</t>
+          <t>1471.04</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1174.64</t>
+          <t>1457.96</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2334.60</t>
+          <t>2743.62</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2522.71</t>
+          <t>2965.22</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1773.53</t>
+          <t>2089.90</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1864.18</t>
+          <t>2208.12</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1394.75</t>
+          <t>1731.32</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1385.26</t>
+          <t>1717.94</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1192.53</t>
+          <t>1480.96</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1182.48</t>
+          <t>1467.85</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2416.47</t>
+          <t>2826.32</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2621.60</t>
+          <t>3072.80</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>1806.41</t>
+          <t>2235.66</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>1946.20</t>
+          <t>2296.52</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1465.10</t>
+          <t>1809.95</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1457.70</t>
+          <t>1796.63</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1260.69</t>
+          <t>1553.63</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1251.05</t>
+          <t>1541.65</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3008.46</t>
+          <t>3454.51</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3203.76</t>
+          <t>3604.12</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2357.91</t>
+          <t>2802.18</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2397.04</t>
+          <t>2707.29</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1848.64</t>
+          <t>2161.43</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1832.91</t>
+          <t>2130.65</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1754.63</t>
+          <t>2115.32</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1751.04</t>
+          <t>2118.84</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1342.94</t>
+          <t>1992.57</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1522.59</t>
+          <t>2173.25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>619.25</t>
+          <t>955.39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1257.39</t>
+          <t>1863.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>856.83</t>
+          <t>1363.06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>849.72</t>
+          <t>1353.72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>802.71</t>
+          <t>1270.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>848.49</t>
+          <t>1301.53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1864.82</t>
+          <t>2629.13</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2171.81</t>
+          <t>2828.08</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1466.56</t>
+          <t>2008.56</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1519.54</t>
+          <t>2047.98</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1114.76</t>
+          <t>1628.88</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1112.12</t>
+          <t>1616.34</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>964.92</t>
+          <t>1412.70</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>969.84</t>
+          <t>1406.87</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1870.84</t>
+          <t>2631.84</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2173.06</t>
+          <t>2828.26</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1449.63</t>
+          <t>1984.58</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1533.86</t>
+          <t>2053.63</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1127.48</t>
+          <t>1630.13</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1126.10</t>
+          <t>1617.63</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>987.28</t>
+          <t>1419.34</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>992.79</t>
+          <t>1410.06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1871.42</t>
+          <t>2636.20</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2172.11</t>
+          <t>2830.56</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1444.37</t>
+          <t>1990.03</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1531.09</t>
+          <t>2095.85</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1131.99</t>
+          <t>1633.07</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1131.42</t>
+          <t>1630.14</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>999.98</t>
+          <t>1424.49</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>998.10</t>
+          <t>1414.19</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1871.64</t>
+          <t>2640.50</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2171.34</t>
+          <t>2833.06</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1441.26</t>
+          <t>1989.61</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1527.44</t>
+          <t>2103.05</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1134.52</t>
+          <t>1645.29</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1134.17</t>
+          <t>1633.30</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1003.04</t>
+          <t>1428.95</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>999.42</t>
+          <t>1418.45</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>1871.73</t>
+          <t>2644.64</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2170.67</t>
+          <t>2835.65</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1446.17</t>
+          <t>1990.18</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1523.86</t>
+          <t>2107.97</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1127.66</t>
+          <t>1648.20</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1135.48</t>
+          <t>1636.34</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1005.38</t>
+          <t>1433.07</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>998.70</t>
+          <t>1422.67</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>1872.64</t>
+          <t>2649.45</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2170.61</t>
+          <t>2839.16</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1445.06</t>
+          <t>1991.70</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1528.10</t>
+          <t>2113.17</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1128.26</t>
+          <t>1651.82</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1129.33</t>
+          <t>1640.07</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1006.98</t>
+          <t>1437.52</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>999.98</t>
+          <t>1427.27</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>1877.62</t>
+          <t>2660.21</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2175.30</t>
+          <t>2849.71</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1447.80</t>
+          <t>2006.92</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1536.47</t>
+          <t>2123.76</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1132.90</t>
+          <t>1661.41</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1125.90</t>
+          <t>1649.74</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1004.64</t>
+          <t>1447.01</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1004.04</t>
+          <t>1436.61</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>1953.61</t>
+          <t>2741.65</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2156.84</t>
+          <t>2925.41</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1474.92</t>
+          <t>2145.29</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1609.20</t>
+          <t>2205.24</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1197.31</t>
+          <t>1737.29</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1189.22</t>
+          <t>1725.54</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1026.95</t>
+          <t>1519.10</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1025.77</t>
+          <t>1508.21</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2572.63</t>
+          <t>3319.61</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2766.73</t>
+          <t>3453.75</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>1841.93</t>
+          <t>2600.04</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>1985.74</t>
+          <t>2534.88</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1540.31</t>
+          <t>2078.12</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1519.62</t>
+          <t>2048.34</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1440.06</t>
+          <t>2038.88</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1439.35</t>
+          <t>2038.48</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1425.89</t>
+          <t>1887.68</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1603.36</t>
+          <t>2058.49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>742.82</t>
+          <t>1308.61</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1338.04</t>
+          <t>1776.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>936.84</t>
+          <t>1285.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>931.17</t>
+          <t>1277.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>889.42</t>
+          <t>1198.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>932.94</t>
+          <t>1230.07</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1934.28</t>
+          <t>2489.65</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2242.46</t>
+          <t>2724.59</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1563.39</t>
+          <t>1974.03</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1557.80</t>
+          <t>2009.40</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1181.86</t>
+          <t>1546.77</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1181.26</t>
+          <t>1534.59</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>994.14</t>
+          <t>1338.77</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>994.92</t>
+          <t>1340.08</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1935.90</t>
+          <t>2483.14</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2239.49</t>
+          <t>2734.01</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1500.19</t>
+          <t>1950.26</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1566.19</t>
+          <t>2012.74</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1179.91</t>
+          <t>1542.64</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1180.75</t>
+          <t>1533.31</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1002.55</t>
+          <t>1343.16</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1006.23</t>
+          <t>1337.61</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1935.15</t>
+          <t>2487.78</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2236.87</t>
+          <t>2741.65</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1482.81</t>
+          <t>1950.23</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1562.66</t>
+          <t>2049.96</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1177.92</t>
+          <t>1545.58</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1182.37</t>
+          <t>1545.46</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1013.99</t>
+          <t>1349.24</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1009.52</t>
+          <t>1342.83</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>1934.58</t>
+          <t>2492.02</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2235.01</t>
+          <t>2747.39</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1479.05</t>
+          <t>1950.39</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1559.42</t>
+          <t>2060.20</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1179.68</t>
+          <t>1557.35</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1184.57</t>
+          <t>1548.55</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1017.50</t>
+          <t>1356.20</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1012.54</t>
+          <t>1349.28</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>1934.14</t>
+          <t>2495.85</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2233.54</t>
+          <t>2752.74</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1484.30</t>
+          <t>1952.55</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1556.42</t>
+          <t>2066.69</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1177.10</t>
+          <t>1560.10</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1185.70</t>
+          <t>1551.42</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1020.38</t>
+          <t>1362.96</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1015.22</t>
+          <t>1355.74</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>1934.38</t>
+          <t>2502.30</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2233.00</t>
+          <t>2758.15</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1483.94</t>
+          <t>1955.66</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1561.35</t>
+          <t>2077.45</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1178.74</t>
+          <t>1563.44</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1186.83</t>
+          <t>1554.86</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1022.85</t>
+          <t>1369.69</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1017.60</t>
+          <t>1361.74</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>1939.24</t>
+          <t>2511.34</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2237.75</t>
+          <t>2770.39</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1488.09</t>
+          <t>1971.92</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1570.89</t>
+          <t>2090.60</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1170.99</t>
+          <t>1572.26</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1188.34</t>
+          <t>1563.79</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1027.52</t>
+          <t>1380.15</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1022.09</t>
+          <t>1371.61</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2015.27</t>
+          <t>2589.02</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2210.00</t>
+          <t>2757.28</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1516.04</t>
+          <t>2089.11</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1644.37</t>
+          <t>2174.65</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1199.70</t>
+          <t>1646.99</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1207.94</t>
+          <t>1635.52</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1081.17</t>
+          <t>1449.53</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1075.17</t>
+          <t>1440.16</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2639.64</t>
+          <t>3137.70</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2822.91</t>
+          <t>3268.75</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>1900.42</t>
+          <t>2487.71</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2050.10</t>
+          <t>2524.95</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1588.92</t>
+          <t>1993.82</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1569.58</t>
+          <t>1968.46</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1495.29</t>
+          <t>1951.32</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1498.91</t>
+          <t>1957.98</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1453.94</t>
+          <t>1906.53</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1574.19</t>
+          <t>2030.18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>884.84</t>
+          <t>1493.51</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1323.32</t>
+          <t>1780.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>929.10</t>
+          <t>1272.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>924.08</t>
+          <t>1270.85</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>899.54</t>
+          <t>1227.32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>943.90</t>
+          <t>1262.37</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1947.82</t>
+          <t>2397.44</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2175.92</t>
+          <t>2719.58</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1582.40</t>
+          <t>1982.30</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1526.49</t>
+          <t>1992.48</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1165.72</t>
+          <t>1532.83</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1165.40</t>
+          <t>1524.30</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>995.98</t>
+          <t>1374.67</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>998.81</t>
+          <t>1371.71</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1939.84</t>
+          <t>2387.60</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2165.03</t>
+          <t>2725.28</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1533.11</t>
+          <t>1953.63</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1528.26</t>
+          <t>1993.79</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1167.01</t>
+          <t>1538.53</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1160.64</t>
+          <t>1530.36</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1000.70</t>
+          <t>1380.47</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1006.65</t>
+          <t>1374.39</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1934.45</t>
+          <t>2395.25</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2159.05</t>
+          <t>2728.57</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1515.61</t>
+          <t>1949.57</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1528.09</t>
+          <t>2036.68</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1165.84</t>
+          <t>1546.49</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1159.79</t>
+          <t>1545.47</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1009.58</t>
+          <t>1385.66</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1007.28</t>
+          <t>1378.27</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>1930.96</t>
+          <t>2398.68</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2155.63</t>
+          <t>2731.65</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1510.38</t>
+          <t>1950.40</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1531.18</t>
+          <t>2043.37</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1165.43</t>
+          <t>1558.81</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1159.95</t>
+          <t>1549.38</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1011.31</t>
+          <t>1390.73</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1008.35</t>
+          <t>1382.90</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>1928.30</t>
+          <t>2402.54</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2153.28</t>
+          <t>2734.78</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1517.33</t>
+          <t>1956.95</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1530.58</t>
+          <t>2049.76</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1165.64</t>
+          <t>1561.55</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1160.45</t>
+          <t>1552.42</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1012.83</t>
+          <t>1395.71</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1009.56</t>
+          <t>1389.21</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>1926.54</t>
+          <t>2407.14</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2152.01</t>
+          <t>2738.48</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1518.50</t>
+          <t>1960.89</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1533.68</t>
+          <t>2056.27</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1166.28</t>
+          <t>1566.16</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1161.43</t>
+          <t>1556.32</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1014.26</t>
+          <t>1402.20</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1010.85</t>
+          <t>1396.69</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>1928.92</t>
+          <t>2416.59</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2155.58</t>
+          <t>2754.24</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1523.77</t>
+          <t>1976.27</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1534.44</t>
+          <t>2068.33</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1167.96</t>
+          <t>1577.15</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1166.67</t>
+          <t>1566.79</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1018.38</t>
+          <t>1413.53</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1014.83</t>
+          <t>1407.82</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>1999.11</t>
+          <t>2500.67</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2130.06</t>
+          <t>2620.97</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1535.82</t>
+          <t>2105.76</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1591.41</t>
+          <t>2150.87</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1224.33</t>
+          <t>1654.38</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1219.94</t>
+          <t>1644.14</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1071.43</t>
+          <t>1484.51</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1067.46</t>
+          <t>1476.51</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2605.43</t>
+          <t>3121.48</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2714.66</t>
+          <t>3216.88</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>1946.53</t>
+          <t>2459.33</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>1994.66</t>
+          <t>2505.65</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1543.11</t>
+          <t>1977.47</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1523.49</t>
+          <t>1956.70</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1531.39</t>
+          <t>1981.07</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1538.64</t>
+          <t>1987.46</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1576.76</t>
+          <t>2081.28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1651.56</t>
+          <t>2252.39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>996.17</t>
+          <t>1543.91</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1473.29</t>
+          <t>1921.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1102.64</t>
+          <t>1387.94</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1096.30</t>
+          <t>1377.71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1101.84</t>
+          <t>1346.79</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1165.31</t>
+          <t>1386.57</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2089.95</t>
+          <t>2767.73</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2233.24</t>
+          <t>2933.54</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1797.28</t>
+          <t>2122.03</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1631.04</t>
+          <t>2128.46</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1294.89</t>
+          <t>1673.45</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1299.22</t>
+          <t>1659.11</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1190.32</t>
+          <t>1492.59</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1195.52</t>
+          <t>1489.50</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2064.47</t>
+          <t>2773.40</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2222.28</t>
+          <t>2931.28</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1692.52</t>
+          <t>2083.00</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1638.86</t>
+          <t>2126.03</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1284.44</t>
+          <t>1682.61</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1283.80</t>
+          <t>1668.15</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1189.12</t>
+          <t>1496.58</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1198.29</t>
+          <t>1487.35</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2062.03</t>
+          <t>2778.35</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2216.07</t>
+          <t>2940.46</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1664.49</t>
+          <t>2086.71</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1636.92</t>
+          <t>2171.65</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1279.98</t>
+          <t>1689.59</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1279.46</t>
+          <t>1680.44</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1199.33</t>
+          <t>1500.54</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1200.48</t>
+          <t>1490.98</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2062.10</t>
+          <t>2784.17</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2211.99</t>
+          <t>2949.00</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1647.33</t>
+          <t>2087.35</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1636.05</t>
+          <t>2179.02</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1276.96</t>
+          <t>1699.09</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1278.97</t>
+          <t>1684.99</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1202.45</t>
+          <t>1505.17</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1203.07</t>
+          <t>1494.19</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2062.54</t>
+          <t>2789.57</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2208.68</t>
+          <t>2956.59</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1650.45</t>
+          <t>2088.96</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1635.60</t>
+          <t>2185.56</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1277.71</t>
+          <t>1703.15</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1279.59</t>
+          <t>1689.08</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1205.18</t>
+          <t>1509.68</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1199.79</t>
+          <t>1498.18</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2062.95</t>
+          <t>2795.28</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2206.48</t>
+          <t>2964.29</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1648.95</t>
+          <t>2091.29</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1642.99</t>
+          <t>2192.17</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1278.37</t>
+          <t>1707.72</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1279.95</t>
+          <t>1693.69</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1207.56</t>
+          <t>1514.72</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1201.91</t>
+          <t>1502.81</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2066.22</t>
+          <t>2805.98</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2209.22</t>
+          <t>2976.26</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1649.00</t>
+          <t>2107.21</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1653.83</t>
+          <t>2204.37</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1281.46</t>
+          <t>1718.56</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1279.84</t>
+          <t>1704.60</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1212.28</t>
+          <t>1525.26</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1206.07</t>
+          <t>1512.95</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2121.32</t>
+          <t>2892.26</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2227.14</t>
+          <t>3050.78</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1655.84</t>
+          <t>2242.61</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1726.95</t>
+          <t>2290.17</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1328.18</t>
+          <t>1799.65</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1325.64</t>
+          <t>1785.68</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1259.39</t>
+          <t>1603.34</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1257.34</t>
+          <t>1590.59</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2691.09</t>
+          <t>3496.05</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2753.45</t>
+          <t>3615.32</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2111.56</t>
+          <t>2765.52</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2137.80</t>
+          <t>2650.31</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1660.41</t>
+          <t>2165.83</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1637.83</t>
+          <t>2134.71</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1642.22</t>
+          <t>2137.03</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1645.59</t>
+          <t>2136.16</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024.92</t>
+          <t>2159.01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2074.23</t>
+          <t>2271.25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1262.17</t>
+          <t>1764.02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1792.62</t>
+          <t>1949.22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1268.56</t>
+          <t>1414.50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1262.17</t>
+          <t>1404.02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1257.65</t>
+          <t>1406.21</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1300.63</t>
+          <t>1449.44</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2787.56</t>
+          <t>2857.29</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2731.86</t>
+          <t>2956.73</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2082.72</t>
+          <t>2232.88</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022.96</t>
+          <t>2144.82</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1533.41</t>
+          <t>1684.50</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1523.76</t>
+          <t>1670.61</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1388.05</t>
+          <t>1548.04</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1378.97</t>
+          <t>1544.25</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2793.84</t>
+          <t>2853.66</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2741.81</t>
+          <t>2959.39</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2107.59</t>
+          <t>2192.93</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2038.77</t>
+          <t>2138.68</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1540.01</t>
+          <t>1690.33</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1532.22</t>
+          <t>1672.88</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1406.45</t>
+          <t>1556.94</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1396.38</t>
+          <t>1547.60</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2796.83</t>
+          <t>2858.93</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2788.38</t>
+          <t>2963.74</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2141.39</t>
+          <t>2192.02</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2036.80</t>
+          <t>2194.80</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1573.97</t>
+          <t>1698.91</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1541.94</t>
+          <t>1690.12</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1445.60</t>
+          <t>1557.57</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1409.79</t>
+          <t>1551.37</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2800.89</t>
+          <t>2863.11</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2855.95</t>
+          <t>2967.92</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2141.88</t>
+          <t>2188.92</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2040.62</t>
+          <t>2201.70</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1621.07</t>
+          <t>1707.87</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1596.39</t>
+          <t>1694.31</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1451.11</t>
+          <t>1558.37</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1441.41</t>
+          <t>1551.96</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2803.83</t>
+          <t>2868.19</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2870.89</t>
+          <t>2971.76</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2149.41</t>
+          <t>2189.01</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2042.23</t>
+          <t>2207.94</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1613.94</t>
+          <t>1726.85</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1614.66</t>
+          <t>1708.89</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1461.73</t>
+          <t>1560.81</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1446.30</t>
+          <t>1553.43</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2798.73</t>
+          <t>2863.27</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2861.22</t>
+          <t>2975.93</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2157.86</t>
+          <t>2190.02</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2047.75</t>
+          <t>2214.42</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1573.47</t>
+          <t>1728.73</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1614.92</t>
+          <t>1715.66</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1465.90</t>
+          <t>1564.02</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1457.37</t>
+          <t>1554.40</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2806.78</t>
+          <t>2872.66</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2825.92</t>
+          <t>2993.19</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2164.95</t>
+          <t>2203.02</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2066.14</t>
+          <t>2226.35</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1570.29</t>
+          <t>1738.51</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1589.96</t>
+          <t>1725.37</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1478.78</t>
+          <t>1568.55</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1466.30</t>
+          <t>1561.42</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2889.57</t>
+          <t>2955.47</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2890.79</t>
+          <t>3094.02</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2194.02</t>
+          <t>2327.00</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2150.77</t>
+          <t>2311.50</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1641.47</t>
+          <t>1808.80</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1633.40</t>
+          <t>1795.51</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1554.68</t>
+          <t>1646.49</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1541.19</t>
+          <t>1633.64</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3647.14</t>
+          <t>3588.90</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3648.42</t>
+          <t>3648.24</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2904.43</t>
+          <t>2932.69</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2731.65</t>
+          <t>2709.19</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2152.65</t>
+          <t>2180.73</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2124.81</t>
+          <t>2147.65</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2133.20</t>
+          <t>2192.41</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2135.95</t>
+          <t>2195.95</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2238.56</t>
+          <t>2142.46</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2166.93</t>
+          <t>2298.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1044.61</t>
+          <t>1415.97</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1861.11</t>
+          <t>1972.29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1350.66</t>
+          <t>1481.11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1341.50</t>
+          <t>1470.44</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1405.79</t>
+          <t>1437.04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1464.64</t>
+          <t>1467.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3027.07</t>
+          <t>2852.42</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2845.02</t>
+          <t>3022.74</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2268.76</t>
+          <t>2191.29</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2089.51</t>
+          <t>2195.48</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1627.01</t>
+          <t>1764.23</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1619.56</t>
+          <t>1750.17</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1533.65</t>
+          <t>1578.82</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1530.64</t>
+          <t>1587.48</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3039.34</t>
+          <t>2850.86</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2841.87</t>
+          <t>3026.83</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2240.24</t>
+          <t>2172.80</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2093.57</t>
+          <t>2201.50</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1628.91</t>
+          <t>1770.10</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1616.98</t>
+          <t>1756.38</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1611.52</t>
+          <t>1587.33</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1609.94</t>
+          <t>1592.48</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3039.24</t>
+          <t>2855.10</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2829.76</t>
+          <t>3031.46</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2287.89</t>
+          <t>2180.85</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2081.23</t>
+          <t>2243.83</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1624.84</t>
+          <t>1771.08</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1613.11</t>
+          <t>1768.78</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1595.92</t>
+          <t>1585.58</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1584.34</t>
+          <t>1595.91</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3034.83</t>
+          <t>2863.21</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2703.96</t>
+          <t>3033.37</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2280.97</t>
+          <t>2181.76</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2066.03</t>
+          <t>2248.42</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1618.97</t>
+          <t>1721.77</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1607.36</t>
+          <t>1767.43</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1600.96</t>
+          <t>1570.02</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1589.20</t>
+          <t>1587.33</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3033.82</t>
+          <t>2870.50</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2705.62</t>
+          <t>3037.23</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2271.50</t>
+          <t>2183.68</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1974.97</t>
+          <t>2253.80</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1549.79</t>
+          <t>1727.40</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1554.25</t>
+          <t>1713.03</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1605.05</t>
+          <t>1570.56</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1593.29</t>
+          <t>1583.48</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3036.63</t>
+          <t>2877.12</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2707.25</t>
+          <t>3041.38</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2259.29</t>
+          <t>2184.05</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1979.82</t>
+          <t>2259.17</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1551.73</t>
+          <t>1733.28</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1539.55</t>
+          <t>1718.90</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1609.33</t>
+          <t>1582.30</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1597.74</t>
+          <t>1569.46</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3046.23</t>
+          <t>2893.89</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2713.43</t>
+          <t>3037.75</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2263.61</t>
+          <t>2199.79</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1995.10</t>
+          <t>2270.34</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1559.92</t>
+          <t>1751.43</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1547.89</t>
+          <t>1737.07</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1618.54</t>
+          <t>1582.55</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1607.34</t>
+          <t>1581.17</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3137.86</t>
+          <t>3068.61</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2861.67</t>
+          <t>3256.46</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2304.29</t>
+          <t>2315.07</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2082.69</t>
+          <t>2358.79</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1640.17</t>
+          <t>1841.16</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1628.84</t>
+          <t>1864.41</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1691.72</t>
+          <t>1667.76</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1681.12</t>
+          <t>1656.72</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3900.94</t>
+          <t>3789.06</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3430.97</t>
+          <t>3859.17</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3030.76</t>
+          <t>3060.69</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2462.17</t>
+          <t>2743.29</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2020.78</t>
+          <t>2260.30</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1993.63</t>
+          <t>2231.30</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2284.02</t>
+          <t>2270.66</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2269.80</t>
+          <t>2272.13</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2204.90</t>
+          <t>2125.15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1945.06</t>
+          <t>2273.17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>469.39</t>
+          <t>692.58</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1652.56</t>
+          <t>1905.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1218.56</t>
+          <t>1434.54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1208.85</t>
+          <t>1423.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1378.52</t>
+          <t>1390.65</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1459.87</t>
+          <t>1458.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3032.68</t>
+          <t>2998.07</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2583.02</t>
+          <t>3032.03</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2311.78</t>
+          <t>2158.62</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1876.68</t>
+          <t>2132.44</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1559.56</t>
+          <t>1720.73</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1530.74</t>
+          <t>1704.04</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1606.37</t>
+          <t>1601.76</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1595.16</t>
+          <t>1608.36</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3053.01</t>
+          <t>2992.90</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2587.96</t>
+          <t>3064.64</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2298.93</t>
+          <t>2139.71</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1887.04</t>
+          <t>2130.10</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1590.00</t>
+          <t>1734.41</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1576.57</t>
+          <t>1720.30</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1621.57</t>
+          <t>1614.87</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1615.38</t>
+          <t>1617.62</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3043.31</t>
+          <t>2938.48</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2582.52</t>
+          <t>3075.75</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2290.44</t>
+          <t>2144.44</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1880.62</t>
+          <t>2161.88</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1563.82</t>
+          <t>1713.33</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1551.34</t>
+          <t>1707.03</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1630.41</t>
+          <t>1614.75</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1620.01</t>
+          <t>1608.40</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3041.76</t>
+          <t>2940.94</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2575.47</t>
+          <t>3078.13</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2274.05</t>
+          <t>2156.14</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1872.59</t>
+          <t>2162.73</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1558.55</t>
+          <t>1724.72</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1546.10</t>
+          <t>1710.49</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1624.46</t>
+          <t>1588.22</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1617.51</t>
+          <t>1590.50</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3030.28</t>
+          <t>2942.86</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2567.92</t>
+          <t>3079.62</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2257.51</t>
+          <t>2157.40</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1864.86</t>
+          <t>2176.24</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1478.00</t>
+          <t>1727.43</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1465.52</t>
+          <t>1713.32</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1562.28</t>
+          <t>1613.65</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1550.58</t>
+          <t>1594.49</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2950.03</t>
+          <t>2981.75</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2563.55</t>
+          <t>3080.09</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2248.74</t>
+          <t>2174.57</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1865.79</t>
+          <t>2184.67</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1476.39</t>
+          <t>1730.63</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1463.96</t>
+          <t>1710.22</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1566.98</t>
+          <t>1607.95</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1555.25</t>
+          <t>1605.33</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2956.77</t>
+          <t>2987.31</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2564.03</t>
+          <t>3083.95</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2232.67</t>
+          <t>2141.15</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1876.26</t>
+          <t>2196.84</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1480.80</t>
+          <t>1732.11</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1468.56</t>
+          <t>1711.91</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1575.90</t>
+          <t>1617.41</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1564.32</t>
+          <t>1604.87</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3058.74</t>
+          <t>3063.99</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2658.28</t>
+          <t>3335.98</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2273.74</t>
+          <t>2284.38</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1947.28</t>
+          <t>2290.89</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1608.48</t>
+          <t>1812.75</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1597.30</t>
+          <t>1799.45</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1707.37</t>
+          <t>1688.48</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1715.07</t>
+          <t>1675.95</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3883.94</t>
+          <t>3864.05</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3139.63</t>
+          <t>3905.54</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3076.71</t>
+          <t>3113.16</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2193.68</t>
+          <t>2715.37</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1769.37</t>
+          <t>2265.71</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1801.98</t>
+          <t>2231.61</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2331.04</t>
+          <t>2341.02</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2330.35</t>
+          <t>2347.22</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1342.94</t>
+          <t>1887.68</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>192.63</t>
+          <t>2030.18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>187.20</t>
+          <t>572.15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>138.15</t>
+          <t>1776.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>175.86</t>
+          <t>1272.90</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>177.31</t>
+          <t>1270.85</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>802.71</t>
+          <t>1198.54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>848.49</t>
+          <t>1230.07</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1864.82</t>
+          <t>2397.44</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2049.65</t>
+          <t>2719.58</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1466.56</t>
+          <t>1974.03</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1498.44</t>
+          <t>1992.48</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1114.76</t>
+          <t>1532.83</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1112.12</t>
+          <t>1524.30</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>964.92</t>
+          <t>1338.77</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>969.84</t>
+          <t>1340.08</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1870.84</t>
+          <t>2387.60</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2161.06</t>
+          <t>2725.28</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1449.63</t>
+          <t>1950.26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1528.26</t>
+          <t>1993.79</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1127.48</t>
+          <t>1538.53</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1126.10</t>
+          <t>1530.36</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>987.28</t>
+          <t>1343.16</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>992.79</t>
+          <t>1337.61</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1871.42</t>
+          <t>2395.25</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2159.05</t>
+          <t>2728.57</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1444.37</t>
+          <t>1949.57</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1528.09</t>
+          <t>2036.68</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1131.99</t>
+          <t>1545.58</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1131.42</t>
+          <t>1545.46</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>999.98</t>
+          <t>1349.24</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>998.10</t>
+          <t>1342.83</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1871.64</t>
+          <t>2398.68</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2155.63</t>
+          <t>2731.65</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1441.26</t>
+          <t>1950.39</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1527.44</t>
+          <t>2043.37</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1134.52</t>
+          <t>1557.35</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1134.17</t>
+          <t>1548.55</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1003.04</t>
+          <t>1356.20</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>999.42</t>
+          <t>1349.28</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1871.73</t>
+          <t>2402.54</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2153.28</t>
+          <t>2734.78</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1446.17</t>
+          <t>1952.55</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1523.86</t>
+          <t>2049.76</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1127.66</t>
+          <t>1560.10</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1135.48</t>
+          <t>1551.42</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1005.38</t>
+          <t>1362.96</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>998.70</t>
+          <t>1355.74</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1872.64</t>
+          <t>2407.14</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2152.01</t>
+          <t>2738.48</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1445.06</t>
+          <t>1955.66</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1184.68</t>
+          <t>2056.27</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1128.26</t>
+          <t>1563.44</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1129.33</t>
+          <t>1554.86</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1006.98</t>
+          <t>1369.69</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>999.98</t>
+          <t>1361.74</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>1877.62</t>
+          <t>2416.59</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>1928.08</t>
+          <t>2754.24</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1447.80</t>
+          <t>1971.92</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>573.58</t>
+          <t>2068.33</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1132.90</t>
+          <t>1572.26</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1125.90</t>
+          <t>1563.79</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1004.64</t>
+          <t>1380.15</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1004.04</t>
+          <t>1371.61</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>1953.61</t>
+          <t>2500.67</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>1180.79</t>
+          <t>2620.97</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1474.92</t>
+          <t>2089.11</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>772.87</t>
+          <t>2150.87</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1197.31</t>
+          <t>1646.99</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1189.22</t>
+          <t>1635.52</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1026.95</t>
+          <t>1449.53</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1025.77</t>
+          <t>1440.16</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2572.63</t>
+          <t>3121.48</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2353.12</t>
+          <t>3216.88</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1841.93</t>
+          <t>2459.33</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>1745.85</t>
+          <t>2505.65</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1534.55</t>
+          <t>1977.47</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1519.62</t>
+          <t>1956.70</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1440.06</t>
+          <t>1951.32</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1439.35</t>
+          <t>1957.98</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2238.56</t>
+          <t>2159.01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2166.93</t>
+          <t>2309.89</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1262.17</t>
+          <t>1764.02</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1861.11</t>
+          <t>1972.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1350.66</t>
+          <t>1481.11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1341.50</t>
+          <t>1470.44</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1405.79</t>
+          <t>1437.04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1464.64</t>
+          <t>1469.20</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3032.68</t>
+          <t>3001.95</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2845.02</t>
+          <t>3035.15</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2311.78</t>
+          <t>2232.88</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2089.51</t>
+          <t>2204.79</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1627.01</t>
+          <t>1764.23</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1619.56</t>
+          <t>1750.17</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1606.37</t>
+          <t>1610.11</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1595.16</t>
+          <t>1608.36</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3053.01</t>
+          <t>2997.78</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2841.87</t>
+          <t>3064.64</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2298.93</t>
+          <t>2192.93</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2093.57</t>
+          <t>2206.88</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1628.91</t>
+          <t>1783.42</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1616.98</t>
+          <t>1768.43</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1621.57</t>
+          <t>1615.96</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1615.38</t>
+          <t>1617.62</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3043.31</t>
+          <t>2987.12</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2829.76</t>
+          <t>3075.75</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2290.44</t>
+          <t>2192.02</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2081.23</t>
+          <t>2247.89</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1624.84</t>
+          <t>1789.07</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1613.11</t>
+          <t>1779.38</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1630.41</t>
+          <t>1615.43</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1620.01</t>
+          <t>1615.72</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3041.76</t>
+          <t>2984.94</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2855.95</t>
+          <t>3078.13</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2280.97</t>
+          <t>2188.92</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2066.03</t>
+          <t>2248.42</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1621.07</t>
+          <t>1728.06</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1607.36</t>
+          <t>1767.43</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1624.46</t>
+          <t>1599.72</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1617.51</t>
+          <t>1601.25</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3033.82</t>
+          <t>2982.59</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2870.89</t>
+          <t>3079.62</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2271.50</t>
+          <t>2189.01</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2042.23</t>
+          <t>2253.80</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1613.94</t>
+          <t>1727.65</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1614.66</t>
+          <t>1715.95</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1605.05</t>
+          <t>1613.65</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1593.29</t>
+          <t>1594.49</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3036.63</t>
+          <t>2981.75</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2861.22</t>
+          <t>3080.09</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2259.29</t>
+          <t>2190.02</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2047.75</t>
+          <t>2259.17</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1573.47</t>
+          <t>1739.30</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1614.92</t>
+          <t>1726.74</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1609.33</t>
+          <t>1607.95</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1597.74</t>
+          <t>1605.33</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3046.23</t>
+          <t>2987.31</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2825.92</t>
+          <t>3083.95</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2263.61</t>
+          <t>2203.02</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2066.14</t>
+          <t>2270.34</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1570.29</t>
+          <t>1751.43</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1589.96</t>
+          <t>1737.07</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1618.54</t>
+          <t>1617.41</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1607.34</t>
+          <t>1604.87</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3137.86</t>
+          <t>3071.43</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2890.79</t>
+          <t>3335.98</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2304.29</t>
+          <t>2327.00</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2150.77</t>
+          <t>2358.79</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1641.47</t>
+          <t>1841.16</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1633.40</t>
+          <t>1864.41</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1707.37</t>
+          <t>1688.48</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1715.07</t>
+          <t>1675.95</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3900.94</t>
+          <t>3889.05</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3648.42</t>
+          <t>3905.54</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3076.71</t>
+          <t>3113.16</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2731.65</t>
+          <t>2773.57</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2152.65</t>
+          <t>2273.67</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2124.81</t>
+          <t>2241.89</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2331.04</t>
+          <t>2341.02</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2330.35</t>
+          <t>2347.22</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_GreatFallsTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_GreatFallsTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2122.45</t>
+          <t>2160.89</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2226.45</t>
+          <t>2018.04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>756.76</t>
+          <t>1091.86</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1857.70</t>
+          <t>1703.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1360.77</t>
+          <t>1288.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1350.38</t>
+          <t>1278.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1385.19</t>
+          <t>1489.67</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1469.20</t>
+          <t>1512.69</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2973.28</t>
+          <t>3045.69</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2879.88</t>
+          <t>2754.73</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2183.64</t>
+          <t>2287.14</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2091.76</t>
+          <t>1948.23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1658.21</t>
+          <t>1589.58</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1644.44</t>
+          <t>1575.22</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1610.11</t>
+          <t>1626.34</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1608.17</t>
+          <t>1625.58</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2982.72</t>
+          <t>3092.90</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2911.28</t>
+          <t>2770.60</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2161.72</t>
+          <t>2274.03</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2100.56</t>
+          <t>1968.29</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1727.98</t>
+          <t>1591.85</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1710.62</t>
+          <t>1577.49</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1615.96</t>
+          <t>1644.36</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1614.22</t>
+          <t>1633.81</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2987.12</t>
+          <t>2957.71</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2929.68</t>
+          <t>2778.62</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2160.49</t>
+          <t>2271.55</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2126.83</t>
+          <t>2051.99</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1725.84</t>
+          <t>1589.23</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1668.75</t>
+          <t>1516.75</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1615.43</t>
+          <t>1647.49</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1615.72</t>
+          <t>1637.65</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2984.94</t>
+          <t>2961.92</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2935.03</t>
+          <t>2788.94</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2157.28</t>
+          <t>2272.57</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2126.16</t>
+          <t>1973.19</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1684.33</t>
+          <t>1510.72</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1671.04</t>
+          <t>1498.63</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1594.09</t>
+          <t>1661.93</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1601.25</t>
+          <t>1641.90</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2982.59</t>
+          <t>2960.25</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2902.92</t>
+          <t>2795.09</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2155.66</t>
+          <t>2306.83</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2127.23</t>
+          <t>2048.79</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1685.68</t>
+          <t>1602.50</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1672.49</t>
+          <t>1584.51</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1598.22</t>
+          <t>1687.43</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1586.29</t>
+          <t>1668.64</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2940.92</t>
+          <t>2964.16</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2903.75</t>
+          <t>2802.48</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2154.00</t>
+          <t>2373.39</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2131.07</t>
+          <t>2038.87</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1688.27</t>
+          <t>1594.55</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1675.18</t>
+          <t>1580.79</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1602.69</t>
+          <t>1575.09</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1590.80</t>
+          <t>1620.11</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2948.27</t>
+          <t>2972.23</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2909.68</t>
+          <t>2810.89</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2162.75</t>
+          <t>2250.01</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2141.13</t>
+          <t>1952.64</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1692.36</t>
+          <t>1595.46</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1679.49</t>
+          <t>1582.99</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1610.99</t>
+          <t>1560.43</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1599.19</t>
+          <t>1565.13</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3038.80</t>
+          <t>3053.69</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3079.19</t>
+          <t>2959.70</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2268.22</t>
+          <t>2254.59</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2231.10</t>
+          <t>2118.44</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1770.96</t>
+          <t>1573.86</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1758.37</t>
+          <t>1652.79</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1676.70</t>
+          <t>1627.82</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1664.25</t>
+          <t>1617.25</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3841.58</t>
+          <t>3652.54</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3682.51</t>
+          <t>3588.49</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3008.43</t>
+          <t>3091.52</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2549.74</t>
+          <t>2422.47</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2165.54</t>
+          <t>1942.64</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2135.76</t>
+          <t>1909.13</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2251.14</t>
+          <t>2360.33</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2249.46</t>
+          <t>2364.75</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2141.54</t>
+          <t>2267.20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2309.89</t>
+          <t>2074.79</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>787.19</t>
+          <t>903.79</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1937.57</t>
+          <t>1841.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1415.23</t>
+          <t>1341.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1404.09</t>
+          <t>1330.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1366.54</t>
+          <t>1471.66</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1403.66</t>
+          <t>1514.71</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3001.95</t>
+          <t>3135.10</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3035.15</t>
+          <t>2925.10</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2168.48</t>
+          <t>2323.50</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2204.79</t>
+          <t>2088.62</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1761.56</t>
+          <t>1639.18</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1746.23</t>
+          <t>1610.37</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1581.48</t>
+          <t>1636.72</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1569.47</t>
+          <t>1634.28</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2997.78</t>
+          <t>3143.58</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3046.04</t>
+          <t>2933.50</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2154.50</t>
+          <t>2312.09</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2206.88</t>
+          <t>2094.51</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1783.42</t>
+          <t>1628.42</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1768.43</t>
+          <t>1610.22</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1602.45</t>
+          <t>1655.48</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1575.65</t>
+          <t>1643.47</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2984.75</t>
+          <t>3136.38</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3049.17</t>
+          <t>2928.35</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2158.70</t>
+          <t>2303.92</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2247.89</t>
+          <t>2086.30</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1789.07</t>
+          <t>1624.97</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1779.38</t>
+          <t>1606.67</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1610.40</t>
+          <t>1654.50</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1591.38</t>
+          <t>1642.61</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2975.94</t>
+          <t>3118.28</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3049.36</t>
+          <t>2760.01</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2153.96</t>
+          <t>2299.65</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2246.76</t>
+          <t>2084.91</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1728.06</t>
+          <t>1621.49</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1712.87</t>
+          <t>1603.29</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1599.72</t>
+          <t>1611.22</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1600.87</t>
+          <t>1595.76</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2969.84</t>
+          <t>3106.68</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3049.26</t>
+          <t>2758.57</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2151.82</t>
+          <t>2303.43</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2246.89</t>
+          <t>2079.58</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1726.21</t>
+          <t>1619.04</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1711.34</t>
+          <t>1600.99</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1591.30</t>
+          <t>1621.71</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1581.86</t>
+          <t>1604.65</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2977.34</t>
+          <t>3093.67</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3050.25</t>
+          <t>2757.52</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2149.46</t>
+          <t>2308.12</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2248.88</t>
+          <t>2075.57</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1736.22</t>
+          <t>1617.67</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1721.27</t>
+          <t>1599.66</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1585.87</t>
+          <t>1608.99</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1573.86</t>
+          <t>1611.79</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2982.60</t>
+          <t>3098.64</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3056.99</t>
+          <t>2761.54</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2162.52</t>
+          <t>2324.84</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2256.88</t>
+          <t>2041.10</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1746.96</t>
+          <t>1620.86</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1732.13</t>
+          <t>1603.72</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1595.89</t>
+          <t>1596.23</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1583.00</t>
+          <t>1582.85</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3071.43</t>
+          <t>3185.66</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3296.94</t>
+          <t>2967.15</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2298.69</t>
+          <t>2292.56</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2340.67</t>
+          <t>2111.70</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1831.47</t>
+          <t>1670.06</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1816.63</t>
+          <t>1659.34</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1670.10</t>
+          <t>1677.40</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1655.66</t>
+          <t>1663.97</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3752.22</t>
+          <t>3960.21</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3870.56</t>
+          <t>3330.01</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3017.95</t>
+          <t>3121.75</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2691.00</t>
+          <t>2335.20</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2273.67</t>
+          <t>1984.60</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2241.89</t>
+          <t>1957.27</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2291.62</t>
+          <t>2379.78</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2288.06</t>
+          <t>2385.36</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2151.93</t>
+          <t>2180.17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2280.70</t>
+          <t>2277.54</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>681.17</t>
+          <t>687.19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1900.21</t>
+          <t>1986.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1402.06</t>
+          <t>1454.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1390.72</t>
+          <t>1444.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1385.64</t>
+          <t>1417.55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1426.16</t>
+          <t>1441.71</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2937.08</t>
+          <t>3043.30</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3029.55</t>
+          <t>3080.30</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2135.51</t>
+          <t>2276.32</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2143.59</t>
+          <t>2232.96</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1699.82</t>
+          <t>1656.13</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1685.05</t>
+          <t>1629.08</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1555.38</t>
+          <t>1571.29</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1548.23</t>
+          <t>1570.35</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2946.85</t>
+          <t>3065.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3050.18</t>
+          <t>3098.13</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2148.25</t>
+          <t>2294.19</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2147.60</t>
+          <t>2262.10</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1712.53</t>
+          <t>1676.35</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1701.95</t>
+          <t>1651.15</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1561.94</t>
+          <t>1593.79</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1552.41</t>
+          <t>1583.70</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2951.40</t>
+          <t>3057.65</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3065.59</t>
+          <t>3094.67</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2156.29</t>
+          <t>2289.78</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2186.32</t>
+          <t>2281.91</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1718.61</t>
+          <t>1719.91</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1712.17</t>
+          <t>1682.62</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1551.01</t>
+          <t>1599.75</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1540.05</t>
+          <t>1591.08</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2958.10</t>
+          <t>3054.37</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3060.15</t>
+          <t>3089.23</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2153.74</t>
+          <t>2287.51</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2189.61</t>
+          <t>2291.55</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1727.28</t>
+          <t>1750.67</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1712.59</t>
+          <t>1712.85</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1540.36</t>
+          <t>1596.82</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1530.19</t>
+          <t>1588.22</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2958.49</t>
+          <t>3065.25</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3056.30</t>
+          <t>3013.15</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2151.04</t>
+          <t>2284.54</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2198.81</t>
+          <t>2240.22</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1727.65</t>
+          <t>1747.52</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1715.95</t>
+          <t>1735.09</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1538.59</t>
+          <t>1597.55</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1528.23</t>
+          <t>1598.45</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2960.90</t>
+          <t>3062.64</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3056.27</t>
+          <t>3018.17</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2151.67</t>
+          <t>2289.38</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2210.50</t>
+          <t>2238.23</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1739.30</t>
+          <t>1748.62</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1726.74</t>
+          <t>1735.75</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1544.10</t>
+          <t>1594.83</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1530.46</t>
+          <t>1590.10</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2967.86</t>
+          <t>3064.75</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3059.90</t>
+          <t>3038.38</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2163.23</t>
+          <t>2292.57</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2220.88</t>
+          <t>2242.37</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1749.56</t>
+          <t>1755.32</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1734.55</t>
+          <t>1742.50</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1554.55</t>
+          <t>1600.19</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1541.16</t>
+          <t>1589.39</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3058.94</t>
+          <t>3150.37</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3183.13</t>
+          <t>3181.21</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2311.33</t>
+          <t>2322.13</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2302.52</t>
+          <t>2315.90</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1826.75</t>
+          <t>1829.43</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1811.72</t>
+          <t>1816.74</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1635.90</t>
+          <t>1669.84</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1627.00</t>
+          <t>1658.69</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3889.05</t>
+          <t>3947.24</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3899.48</t>
+          <t>3882.69</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3053.67</t>
+          <t>3073.18</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2756.80</t>
+          <t>2715.58</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2246.49</t>
+          <t>2193.58</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2209.00</t>
+          <t>2164.18</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2304.55</t>
+          <t>2332.55</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2303.10</t>
+          <t>2344.89</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2048.03</t>
+          <t>2140.00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2208.71</t>
+          <t>2288.34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>572.15</t>
+          <t>387.68</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1900.38</t>
+          <t>1955.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1383.07</t>
+          <t>1400.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1372.01</t>
+          <t>1389.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1343.42</t>
+          <t>1361.91</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1372.06</t>
+          <t>1392.05</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2809.81</t>
+          <t>3056.04</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2938.10</t>
+          <t>3071.86</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2119.47</t>
+          <t>2271.76</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2152.26</t>
+          <t>2259.45</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1681.29</t>
+          <t>1720.37</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1670.44</t>
+          <t>1705.44</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1484.97</t>
+          <t>1529.29</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1476.95</t>
+          <t>1528.07</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2829.42</t>
+          <t>3063.47</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2942.49</t>
+          <t>3069.59</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2121.47</t>
+          <t>2265.08</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2165.99</t>
+          <t>2284.21</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1691.82</t>
+          <t>1678.97</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1679.67</t>
+          <t>1666.06</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1495.33</t>
+          <t>1552.53</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1485.52</t>
+          <t>1542.65</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2827.86</t>
+          <t>3060.58</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2942.78</t>
+          <t>3065.69</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2108.55</t>
+          <t>2259.10</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2205.80</t>
+          <t>2284.38</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1696.61</t>
+          <t>1679.99</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1694.52</t>
+          <t>1667.20</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1501.22</t>
+          <t>1559.54</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1490.82</t>
+          <t>1550.23</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2856.21</t>
+          <t>3055.81</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2959.41</t>
+          <t>3062.08</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2100.33</t>
+          <t>2254.61</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2214.49</t>
+          <t>2288.33</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1708.55</t>
+          <t>1679.82</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1697.60</t>
+          <t>1666.83</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1488.02</t>
+          <t>1540.13</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1481.33</t>
+          <t>1553.52</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2853.28</t>
+          <t>3052.92</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2965.20</t>
+          <t>3058.73</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2100.63</t>
+          <t>2121.49</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2215.29</t>
+          <t>2155.58</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1715.18</t>
+          <t>1681.06</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1699.46</t>
+          <t>1667.26</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1491.15</t>
+          <t>1539.52</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1479.71</t>
+          <t>1528.72</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2853.76</t>
+          <t>3051.74</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2970.60</t>
+          <t>3056.25</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2111.54</t>
+          <t>2128.65</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2216.57</t>
+          <t>2155.76</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1720.75</t>
+          <t>1683.02</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1706.57</t>
+          <t>1669.21</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1498.20</t>
+          <t>1541.97</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1483.10</t>
+          <t>1529.82</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2860.57</t>
+          <t>3055.13</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2977.64</t>
+          <t>3058.46</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2127.42</t>
+          <t>2134.17</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2224.39</t>
+          <t>2160.79</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1723.46</t>
+          <t>1689.69</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1718.24</t>
+          <t>1675.97</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1524.78</t>
+          <t>1548.75</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1499.24</t>
+          <t>1536.45</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2945.17</t>
+          <t>3137.46</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3058.59</t>
+          <t>3273.63</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2245.72</t>
+          <t>2164.79</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2308.53</t>
+          <t>2229.22</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1791.83</t>
+          <t>1758.28</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1786.99</t>
+          <t>1744.49</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1607.00</t>
+          <t>1615.02</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1595.68</t>
+          <t>1599.58</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3714.96</t>
+          <t>3842.49</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3722.72</t>
+          <t>3925.98</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2945.10</t>
+          <t>2852.20</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2773.57</t>
+          <t>2735.50</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2213.17</t>
+          <t>2161.62</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2184.88</t>
+          <t>2121.88</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2227.69</t>
+          <t>2153.61</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2226.18</t>
+          <t>2157.08</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2016.28</t>
+          <t>1831.60</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2234.29</t>
+          <t>1982.13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>810.97</t>
+          <t>411.36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1919.26</t>
+          <t>1693.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1402.72</t>
+          <t>1163.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1392.04</t>
+          <t>1155.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1279.72</t>
+          <t>1122.75</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1309.51</t>
+          <t>1148.99</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2707.45</t>
+          <t>2563.51</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2928.55</t>
+          <t>2699.69</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2089.29</t>
+          <t>1937.18</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2127.11</t>
+          <t>1947.41</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1689.18</t>
+          <t>1445.25</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1675.15</t>
+          <t>1435.54</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1439.76</t>
+          <t>1261.70</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1428.49</t>
+          <t>1257.59</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2714.75</t>
+          <t>2582.39</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2935.71</t>
+          <t>2713.31</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2066.77</t>
+          <t>1930.57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2131.62</t>
+          <t>1967.38</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1694.51</t>
+          <t>1456.75</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1680.55</t>
+          <t>1447.83</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1450.29</t>
+          <t>1277.47</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1437.62</t>
+          <t>1271.71</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2720.72</t>
+          <t>2590.86</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2941.38</t>
+          <t>2720.01</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2070.09</t>
+          <t>1929.57</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2176.97</t>
+          <t>1972.39</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1698.89</t>
+          <t>1464.14</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1694.74</t>
+          <t>1455.45</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1457.13</t>
+          <t>1286.81</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1444.04</t>
+          <t>1280.18</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2725.59</t>
+          <t>2596.60</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2946.11</t>
+          <t>2724.17</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2070.57</t>
+          <t>1931.92</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2184.08</t>
+          <t>1981.41</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1712.78</t>
+          <t>1468.89</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1699.26</t>
+          <t>1460.29</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1462.14</t>
+          <t>1301.47</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1449.03</t>
+          <t>1285.72</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2729.82</t>
+          <t>2601.07</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2950.31</t>
+          <t>2727.62</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2071.63</t>
+          <t>1934.35</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2190.24</t>
+          <t>1983.03</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1716.71</t>
+          <t>1472.49</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1703.23</t>
+          <t>1463.92</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1466.42</t>
+          <t>1306.27</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1453.34</t>
+          <t>1289.92</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2734.31</t>
+          <t>2605.75</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2954.94</t>
+          <t>2731.18</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2073.53</t>
+          <t>1941.74</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2196.44</t>
+          <t>1985.03</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1721.11</t>
+          <t>1476.11</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1707.67</t>
+          <t>1467.59</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1471.04</t>
+          <t>1310.97</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1457.96</t>
+          <t>1294.04</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2743.62</t>
+          <t>2615.20</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2965.22</t>
+          <t>2739.83</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2089.90</t>
+          <t>1949.54</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2208.12</t>
+          <t>1991.55</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1731.32</t>
+          <t>1485.03</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1717.94</t>
+          <t>1476.53</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1480.96</t>
+          <t>1320.30</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1467.85</t>
+          <t>1312.52</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2826.32</t>
+          <t>2706.25</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3072.80</t>
+          <t>2862.18</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2235.66</t>
+          <t>1986.36</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2296.52</t>
+          <t>2073.08</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1809.95</t>
+          <t>1563.31</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1796.63</t>
+          <t>1554.97</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1553.63</t>
+          <t>1394.67</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1541.65</t>
+          <t>1387.10</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3454.51</t>
+          <t>3307.26</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3604.12</t>
+          <t>3440.76</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2802.18</t>
+          <t>2554.01</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2707.29</t>
+          <t>2497.97</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2161.43</t>
+          <t>1984.31</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2130.65</t>
+          <t>1949.20</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2115.32</t>
+          <t>1929.28</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2118.84</t>
+          <t>1933.77</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1992.57</t>
+          <t>1726.26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2173.25</t>
+          <t>1885.85</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>955.39</t>
+          <t>632.06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1863.54</t>
+          <t>1622.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1363.06</t>
+          <t>1112.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1353.72</t>
+          <t>1105.04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1270.34</t>
+          <t>1066.61</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1301.53</t>
+          <t>1103.24</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2629.13</t>
+          <t>2383.12</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2828.08</t>
+          <t>2546.15</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2008.56</t>
+          <t>1856.00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2047.98</t>
+          <t>1850.48</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1628.88</t>
+          <t>1375.56</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1616.34</t>
+          <t>1366.57</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1412.70</t>
+          <t>1187.47</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1406.87</t>
+          <t>1195.19</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2631.84</t>
+          <t>2371.84</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2828.26</t>
+          <t>2527.88</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1984.58</t>
+          <t>1804.38</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2053.63</t>
+          <t>1850.79</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1630.13</t>
+          <t>1369.85</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1617.63</t>
+          <t>1361.61</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1419.34</t>
+          <t>1200.00</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1410.06</t>
+          <t>1194.89</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2636.20</t>
+          <t>2369.62</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2830.56</t>
+          <t>2524.54</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1990.03</t>
+          <t>1794.10</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2095.85</t>
+          <t>1848.31</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1633.07</t>
+          <t>1371.74</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1630.14</t>
+          <t>1363.89</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1424.49</t>
+          <t>1205.23</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1414.19</t>
+          <t>1199.02</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2640.50</t>
+          <t>2366.90</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2833.06</t>
+          <t>2521.57</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1989.61</t>
+          <t>1790.98</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2103.05</t>
+          <t>1852.10</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1645.29</t>
+          <t>1372.90</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1633.30</t>
+          <t>1365.19</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1428.95</t>
+          <t>1208.47</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1418.45</t>
+          <t>1202.05</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2644.64</t>
+          <t>2364.74</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2835.65</t>
+          <t>2517.09</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1990.18</t>
+          <t>1789.32</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2107.97</t>
+          <t>1849.79</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1648.20</t>
+          <t>1373.57</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1636.34</t>
+          <t>1366.17</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1433.07</t>
+          <t>1210.88</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1422.67</t>
+          <t>1204.39</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2649.45</t>
+          <t>2339.95</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2839.16</t>
+          <t>2492.05</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1991.70</t>
+          <t>1790.81</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2113.17</t>
+          <t>1841.46</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1651.82</t>
+          <t>1361.32</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1640.07</t>
+          <t>1358.73</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1437.52</t>
+          <t>1201.60</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1427.27</t>
+          <t>1199.26</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2660.21</t>
+          <t>2343.46</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2849.71</t>
+          <t>2495.80</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2006.92</t>
+          <t>1797.72</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2123.76</t>
+          <t>1847.10</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1661.41</t>
+          <t>1366.10</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1649.74</t>
+          <t>1363.51</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1447.01</t>
+          <t>1206.58</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1436.61</t>
+          <t>1200.17</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2741.65</t>
+          <t>2426.70</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2925.41</t>
+          <t>2585.87</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2145.29</t>
+          <t>1833.41</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2205.24</t>
+          <t>1924.41</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1737.29</t>
+          <t>1434.85</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1725.54</t>
+          <t>1427.64</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1519.10</t>
+          <t>1269.74</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1508.21</t>
+          <t>1262.68</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3319.61</t>
+          <t>2964.85</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3453.75</t>
+          <t>3107.94</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2600.04</t>
+          <t>2400.58</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2534.88</t>
+          <t>2369.59</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2078.12</t>
+          <t>1822.50</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2048.34</t>
+          <t>1799.30</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2038.88</t>
+          <t>1778.14</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2038.48</t>
+          <t>1784.75</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1887.68</t>
+          <t>1536.80</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2058.49</t>
+          <t>1645.31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1308.61</t>
+          <t>708.58</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1776.19</t>
+          <t>1440.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1285.88</t>
+          <t>966.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1277.52</t>
+          <t>962.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1198.54</t>
+          <t>938.50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1230.07</t>
+          <t>1005.43</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2489.65</t>
+          <t>2086.15</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2724.59</t>
+          <t>2278.88</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1974.03</t>
+          <t>1674.61</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2009.40</t>
+          <t>1667.76</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1546.77</t>
+          <t>1208.74</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1534.59</t>
+          <t>1204.24</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1338.77</t>
+          <t>1081.82</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1340.08</t>
+          <t>1092.50</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2483.14</t>
+          <t>2082.86</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2734.01</t>
+          <t>2268.45</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1950.26</t>
+          <t>1643.18</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2012.74</t>
+          <t>1671.06</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1542.64</t>
+          <t>1206.27</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1533.31</t>
+          <t>1202.47</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1343.16</t>
+          <t>1095.34</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1337.61</t>
+          <t>1094.94</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2487.78</t>
+          <t>2079.62</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2741.65</t>
+          <t>2264.21</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1950.23</t>
+          <t>1632.48</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2049.96</t>
+          <t>1668.80</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1545.58</t>
+          <t>1206.81</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1545.46</t>
+          <t>1203.33</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1349.24</t>
+          <t>1099.63</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1342.83</t>
+          <t>1097.28</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2492.02</t>
+          <t>2077.31</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2747.39</t>
+          <t>2261.47</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1950.39</t>
+          <t>1629.82</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2060.20</t>
+          <t>1674.45</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1557.35</t>
+          <t>1207.78</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1548.55</t>
+          <t>1204.45</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1356.20</t>
+          <t>1077.12</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1349.28</t>
+          <t>1099.82</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2495.85</t>
+          <t>2075.51</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2752.74</t>
+          <t>2259.42</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1952.55</t>
+          <t>1629.09</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2066.69</t>
+          <t>1673.43</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1560.10</t>
+          <t>1208.73</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1551.42</t>
+          <t>1205.49</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1362.96</t>
+          <t>1075.97</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1355.74</t>
+          <t>1102.17</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2502.30</t>
+          <t>2074.58</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2758.15</t>
+          <t>2258.34</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1955.66</t>
+          <t>1634.07</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2077.45</t>
+          <t>1672.99</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1563.44</t>
+          <t>1209.85</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1554.86</t>
+          <t>1206.55</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1369.69</t>
+          <t>1078.70</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1361.74</t>
+          <t>1104.30</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2511.34</t>
+          <t>2078.21</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2770.39</t>
+          <t>2262.35</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1971.92</t>
+          <t>1638.09</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2090.60</t>
+          <t>1675.92</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1572.26</t>
+          <t>1214.91</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1563.79</t>
+          <t>1211.25</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1380.15</t>
+          <t>1084.21</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1371.61</t>
+          <t>1109.50</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2589.02</t>
+          <t>2154.25</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2757.28</t>
+          <t>2298.28</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2089.11</t>
+          <t>1668.17</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2174.65</t>
+          <t>1746.69</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1646.99</t>
+          <t>1281.69</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1635.52</t>
+          <t>1277.62</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1449.53</t>
+          <t>1136.98</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1440.16</t>
+          <t>1135.28</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3137.70</t>
+          <t>2725.52</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3268.75</t>
+          <t>2828.47</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2487.71</t>
+          <t>2146.86</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2524.95</t>
+          <t>2144.65</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1993.82</t>
+          <t>1654.78</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1968.46</t>
+          <t>1636.50</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1951.32</t>
+          <t>1629.84</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1957.98</t>
+          <t>1640.29</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1906.53</t>
+          <t>1549.56</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2030.18</t>
+          <t>1666.94</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1493.51</t>
+          <t>963.08</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1780.43</t>
+          <t>1446.58</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1272.90</t>
+          <t>989.88</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1270.85</t>
+          <t>983.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1227.32</t>
+          <t>988.77</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1262.37</t>
+          <t>1033.52</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2397.44</t>
+          <t>2103.82</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2719.58</t>
+          <t>2311.56</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1982.30</t>
+          <t>1707.74</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1992.48</t>
+          <t>1631.88</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1532.83</t>
+          <t>1228.02</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1524.30</t>
+          <t>1219.06</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1374.67</t>
+          <t>1089.68</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1371.71</t>
+          <t>1097.34</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2387.60</t>
+          <t>2098.52</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2725.28</t>
+          <t>2301.86</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1953.63</t>
+          <t>1610.60</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1993.79</t>
+          <t>1625.26</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1538.53</t>
+          <t>1222.31</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1530.36</t>
+          <t>1219.40</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1380.47</t>
+          <t>1098.37</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1374.39</t>
+          <t>1095.19</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2395.25</t>
+          <t>2094.63</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2728.57</t>
+          <t>2297.74</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1949.57</t>
+          <t>1595.17</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2036.68</t>
+          <t>1617.14</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1546.49</t>
+          <t>1218.46</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1545.47</t>
+          <t>1216.03</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1385.66</t>
+          <t>1099.58</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1378.27</t>
+          <t>1094.40</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2398.68</t>
+          <t>2092.59</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2731.65</t>
+          <t>2295.00</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1950.40</t>
+          <t>1590.55</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2043.37</t>
+          <t>1617.28</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1558.81</t>
+          <t>1213.81</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1549.38</t>
+          <t>1209.97</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1390.73</t>
+          <t>1100.15</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1382.90</t>
+          <t>1094.33</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2402.54</t>
+          <t>2091.56</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2734.78</t>
+          <t>2292.66</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1956.95</t>
+          <t>1589.15</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2049.76</t>
+          <t>1612.30</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1561.55</t>
+          <t>1204.47</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1552.42</t>
+          <t>1210.38</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1395.71</t>
+          <t>1100.53</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1389.21</t>
+          <t>1094.58</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2407.14</t>
+          <t>2091.33</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2738.48</t>
+          <t>2291.38</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1960.89</t>
+          <t>1593.24</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2056.27</t>
+          <t>1608.37</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1566.16</t>
+          <t>1204.74</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1556.32</t>
+          <t>1208.22</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1402.20</t>
+          <t>1095.37</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1396.69</t>
+          <t>1095.19</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2416.59</t>
+          <t>2095.43</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2754.24</t>
+          <t>2295.41</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1976.27</t>
+          <t>1595.46</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2068.33</t>
+          <t>1607.80</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1577.15</t>
+          <t>1208.28</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1566.79</t>
+          <t>1210.13</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1413.53</t>
+          <t>1100.79</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1407.82</t>
+          <t>1099.35</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2500.67</t>
+          <t>2171.68</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2620.97</t>
+          <t>2285.16</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2105.76</t>
+          <t>1621.71</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2150.87</t>
+          <t>1672.07</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1654.38</t>
+          <t>1256.56</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1644.14</t>
+          <t>1264.78</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1484.51</t>
+          <t>1158.91</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1476.51</t>
+          <t>1151.08</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3121.48</t>
+          <t>2777.61</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3216.88</t>
+          <t>2841.63</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2459.33</t>
+          <t>2118.71</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2505.65</t>
+          <t>2105.57</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1977.47</t>
+          <t>1614.74</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1956.70</t>
+          <t>1593.06</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1981.07</t>
+          <t>1617.16</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1987.46</t>
+          <t>1627.69</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2081.28</t>
+          <t>1609.04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2252.39</t>
+          <t>1673.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1543.91</t>
+          <t>1111.11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1921.85</t>
+          <t>1479.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1387.94</t>
+          <t>1036.22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1377.71</t>
+          <t>1032.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1346.79</t>
+          <t>1038.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1386.57</t>
+          <t>1076.72</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2767.73</t>
+          <t>2154.15</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2933.54</t>
+          <t>2283.60</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2122.03</t>
+          <t>1737.69</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2128.46</t>
+          <t>1667.44</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1673.45</t>
+          <t>1243.36</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1659.11</t>
+          <t>1260.63</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1492.59</t>
+          <t>1143.80</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1489.50</t>
+          <t>1153.03</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2773.40</t>
+          <t>2147.07</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2931.28</t>
+          <t>2271.63</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2083.00</t>
+          <t>1687.11</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2126.03</t>
+          <t>1651.86</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1682.61</t>
+          <t>1216.29</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1668.15</t>
+          <t>1235.07</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1496.58</t>
+          <t>1153.69</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1487.35</t>
+          <t>1152.32</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2778.35</t>
+          <t>2144.14</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2940.46</t>
+          <t>2267.69</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2086.71</t>
+          <t>1654.57</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2171.65</t>
+          <t>1644.10</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1689.59</t>
+          <t>1209.26</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1680.44</t>
+          <t>1230.53</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1500.54</t>
+          <t>1156.60</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1490.98</t>
+          <t>1153.58</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2784.17</t>
+          <t>2142.80</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2949.00</t>
+          <t>2265.63</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2087.35</t>
+          <t>1650.52</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2179.02</t>
+          <t>1645.78</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1699.09</t>
+          <t>1204.79</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1684.99</t>
+          <t>1226.57</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1505.17</t>
+          <t>1159.48</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1494.19</t>
+          <t>1155.74</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,177 +4718,177 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2789.57</t>
+          <t>2141.92</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2956.59</t>
+          <t>2264.25</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2088.96</t>
+          <t>1648.87</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2185.56</t>
+          <t>1641.84</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1703.15</t>
+          <t>1206.65</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
+          <t>1225.59</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>1162.21</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>1158.13</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>2141.66</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>2263.51</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>1653.14</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>1638.29</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>1208.93</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>1224.59</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>1164.72</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>1160.39</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>2145.48</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>2267.47</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>1656.93</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>1639.17</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>1208.66</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>1224.33</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>1169.91</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>1165.38</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>2220.94</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>2260.15</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
           <t>1689.08</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>1509.68</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>1498.18</t>
-        </is>
-      </c>
-      <c r="BB11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>2795.28</t>
-        </is>
-      </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>2964.29</t>
-        </is>
-      </c>
-      <c r="BE11" t="inlineStr">
-        <is>
-          <t>2091.29</t>
-        </is>
-      </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>2192.17</t>
-        </is>
-      </c>
-      <c r="BG11" t="inlineStr">
-        <is>
-          <t>1707.72</t>
-        </is>
-      </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>1693.69</t>
-        </is>
-      </c>
-      <c r="BI11" t="inlineStr">
-        <is>
-          <t>1514.72</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>1502.81</t>
-        </is>
-      </c>
-      <c r="BK11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>2805.98</t>
-        </is>
-      </c>
-      <c r="BM11" t="inlineStr">
-        <is>
-          <t>2976.26</t>
-        </is>
-      </c>
-      <c r="BN11" t="inlineStr">
-        <is>
-          <t>2107.21</t>
-        </is>
-      </c>
-      <c r="BO11" t="inlineStr">
-        <is>
-          <t>2204.37</t>
-        </is>
-      </c>
-      <c r="BP11" t="inlineStr">
-        <is>
-          <t>1718.56</t>
-        </is>
-      </c>
-      <c r="BQ11" t="inlineStr">
-        <is>
-          <t>1704.60</t>
-        </is>
-      </c>
-      <c r="BR11" t="inlineStr">
-        <is>
-          <t>1525.26</t>
-        </is>
-      </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>1512.95</t>
-        </is>
-      </c>
-      <c r="BT11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>2892.26</t>
-        </is>
-      </c>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>3050.78</t>
-        </is>
-      </c>
-      <c r="BW11" t="inlineStr">
-        <is>
-          <t>2242.61</t>
-        </is>
-      </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2290.17</t>
+          <t>1701.74</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1799.65</t>
+          <t>1251.56</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1785.68</t>
+          <t>1276.81</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1603.34</t>
+          <t>1226.99</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1590.59</t>
+          <t>1221.92</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3496.05</t>
+          <t>2851.82</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3615.32</t>
+          <t>2809.39</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2765.52</t>
+          <t>2181.42</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2650.31</t>
+          <t>2114.37</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2165.83</t>
+          <t>1614.90</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2134.71</t>
+          <t>1593.24</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2137.03</t>
+          <t>1694.08</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2136.16</t>
+          <t>1707.49</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2159.01</t>
+          <t>1955.25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2271.25</t>
+          <t>2039.79</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1764.02</t>
+          <t>1510.35</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1949.22</t>
+          <t>1701.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1414.50</t>
+          <t>1188.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1404.02</t>
+          <t>1196.16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1406.21</t>
+          <t>1268.12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1449.44</t>
+          <t>1302.62</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2857.29</t>
+          <t>2661.40</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2956.73</t>
+          <t>2752.26</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2232.88</t>
+          <t>2051.90</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2144.82</t>
+          <t>1934.00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1684.50</t>
+          <t>1440.41</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1670.61</t>
+          <t>1431.02</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1548.04</t>
+          <t>1380.71</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1544.25</t>
+          <t>1385.03</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2853.66</t>
+          <t>2654.05</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2959.39</t>
+          <t>2750.72</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2192.93</t>
+          <t>1996.56</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2138.68</t>
+          <t>1940.50</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1690.33</t>
+          <t>1444.21</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1672.88</t>
+          <t>1434.03</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1556.94</t>
+          <t>1389.18</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1547.60</t>
+          <t>1382.94</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2858.93</t>
+          <t>2648.10</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2963.74</t>
+          <t>2752.88</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2192.02</t>
+          <t>1979.35</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2194.80</t>
+          <t>1936.15</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1698.91</t>
+          <t>1452.70</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1690.12</t>
+          <t>1439.03</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1557.57</t>
+          <t>1388.36</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1551.37</t>
+          <t>1381.50</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2863.11</t>
+          <t>2632.15</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2967.92</t>
+          <t>2750.41</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2188.92</t>
+          <t>1971.60</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2201.70</t>
+          <t>1941.02</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1707.87</t>
+          <t>1456.91</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1694.31</t>
+          <t>1444.07</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1558.37</t>
+          <t>1384.78</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1551.96</t>
+          <t>1380.17</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2868.19</t>
+          <t>2627.62</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2971.76</t>
+          <t>2748.45</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2189.01</t>
+          <t>1966.94</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2207.94</t>
+          <t>1940.72</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1726.85</t>
+          <t>1458.72</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1708.89</t>
+          <t>1446.67</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1560.81</t>
+          <t>1374.02</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1553.43</t>
+          <t>1377.34</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2863.27</t>
+          <t>2625.13</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2975.93</t>
+          <t>2747.95</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2190.02</t>
+          <t>1970.16</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2214.42</t>
+          <t>1941.16</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1728.73</t>
+          <t>1459.51</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1715.66</t>
+          <t>1448.41</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1564.02</t>
+          <t>1370.76</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1554.40</t>
+          <t>1365.71</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2872.66</t>
+          <t>2627.87</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2993.19</t>
+          <t>2753.38</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2203.02</t>
+          <t>1972.18</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2226.35</t>
+          <t>1947.01</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1738.51</t>
+          <t>1470.04</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1725.37</t>
+          <t>1455.44</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1568.55</t>
+          <t>1374.29</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1561.42</t>
+          <t>1366.37</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2955.47</t>
+          <t>2709.91</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3094.02</t>
+          <t>2866.91</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2327.00</t>
+          <t>2004.11</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2311.50</t>
+          <t>2027.11</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1808.80</t>
+          <t>1544.18</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1795.51</t>
+          <t>1533.86</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1646.49</t>
+          <t>1442.55</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1633.64</t>
+          <t>1433.36</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3588.90</t>
+          <t>3287.91</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3648.24</t>
+          <t>3576.61</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2932.69</t>
+          <t>2581.60</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2709.19</t>
+          <t>2488.05</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2180.73</t>
+          <t>1967.65</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2147.65</t>
+          <t>1933.85</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2192.41</t>
+          <t>1948.48</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2195.95</t>
+          <t>1950.82</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2142.46</t>
+          <t>2075.48</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2298.00</t>
+          <t>2162.44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1415.97</t>
+          <t>1087.94</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1972.29</t>
+          <t>1806.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1481.11</t>
+          <t>1253.22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1470.44</t>
+          <t>1239.65</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1437.04</t>
+          <t>1381.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1467.95</t>
+          <t>1399.19</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2852.42</t>
+          <t>2905.79</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3022.74</t>
+          <t>2931.52</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2191.29</t>
+          <t>2200.19</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2195.48</t>
+          <t>2062.16</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1764.23</t>
+          <t>1553.38</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1750.17</t>
+          <t>1536.95</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1578.82</t>
+          <t>1515.07</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1587.48</t>
+          <t>1508.97</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2850.86</t>
+          <t>2868.70</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3026.83</t>
+          <t>2940.28</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2172.80</t>
+          <t>2192.43</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2201.50</t>
+          <t>2074.13</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1770.10</t>
+          <t>1564.55</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1756.38</t>
+          <t>1550.53</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1587.33</t>
+          <t>1535.98</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1592.48</t>
+          <t>1524.85</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2855.10</t>
+          <t>2829.83</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3031.46</t>
+          <t>2947.15</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2180.85</t>
+          <t>2195.07</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2243.83</t>
+          <t>2081.49</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1771.08</t>
+          <t>1574.06</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1768.78</t>
+          <t>1562.11</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1585.58</t>
+          <t>1545.10</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1595.91</t>
+          <t>1536.28</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2863.21</t>
+          <t>2828.07</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3033.37</t>
+          <t>2948.66</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2181.76</t>
+          <t>2205.84</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2248.42</t>
+          <t>2088.64</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1721.77</t>
+          <t>1584.64</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1767.43</t>
+          <t>1566.87</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1570.02</t>
+          <t>1537.28</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1587.33</t>
+          <t>1536.75</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2870.50</t>
+          <t>2826.69</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3037.23</t>
+          <t>2949.14</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2183.68</t>
+          <t>2216.82</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2253.80</t>
+          <t>2086.85</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1727.40</t>
+          <t>1579.38</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1713.03</t>
+          <t>1567.84</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1570.56</t>
+          <t>1525.93</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1583.48</t>
+          <t>1525.11</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2877.12</t>
+          <t>2825.99</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3041.38</t>
+          <t>2955.31</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2184.05</t>
+          <t>2231.94</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2259.17</t>
+          <t>2087.23</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1733.28</t>
+          <t>1568.91</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1718.90</t>
+          <t>1556.17</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1582.30</t>
+          <t>1511.79</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1569.46</t>
+          <t>1510.24</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2893.89</t>
+          <t>2829.65</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3037.75</t>
+          <t>2961.50</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2199.79</t>
+          <t>2244.09</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2270.34</t>
+          <t>2088.53</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1751.43</t>
+          <t>1575.30</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1737.07</t>
+          <t>1562.49</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1582.55</t>
+          <t>1511.49</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1581.17</t>
+          <t>1504.69</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3068.61</t>
+          <t>2901.76</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3256.46</t>
+          <t>3085.40</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2315.07</t>
+          <t>2270.98</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2358.79</t>
+          <t>2175.50</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1841.16</t>
+          <t>1651.86</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1864.41</t>
+          <t>1637.67</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1667.76</t>
+          <t>1551.60</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1656.72</t>
+          <t>1542.49</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3789.06</t>
+          <t>3532.58</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3859.17</t>
+          <t>3838.63</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3060.69</t>
+          <t>3078.73</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2743.29</t>
+          <t>2650.98</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2260.30</t>
+          <t>2109.65</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2231.30</t>
+          <t>2074.54</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2270.66</t>
+          <t>2145.54</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2272.13</t>
+          <t>2166.02</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2125.15</t>
+          <t>2228.57</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2273.17</t>
+          <t>2257.66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>692.58</t>
+          <t>737.52</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1905.15</t>
+          <t>1784.77</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1434.54</t>
+          <t>1285.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1423.80</t>
+          <t>1276.18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1390.65</t>
+          <t>1497.69</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1458.95</t>
+          <t>1534.29</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2998.07</t>
+          <t>3036.49</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3032.03</t>
+          <t>2765.52</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2158.62</t>
+          <t>2293.73</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2132.44</t>
+          <t>2016.24</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1720.73</t>
+          <t>1559.95</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1704.04</t>
+          <t>1547.20</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1601.76</t>
+          <t>1641.16</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1608.36</t>
+          <t>1642.52</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2992.90</t>
+          <t>3035.33</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3064.64</t>
+          <t>2762.59</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2139.71</t>
+          <t>2261.21</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2130.10</t>
+          <t>2017.01</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1734.41</t>
+          <t>1555.77</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1720.30</t>
+          <t>1544.33</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1614.87</t>
+          <t>1656.43</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1617.62</t>
+          <t>1645.16</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2938.48</t>
+          <t>3039.44</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3075.75</t>
+          <t>2752.10</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2144.44</t>
+          <t>2252.13</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2161.88</t>
+          <t>2007.84</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1713.33</t>
+          <t>1570.54</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1707.03</t>
+          <t>1537.96</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1614.75</t>
+          <t>1656.59</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1608.40</t>
+          <t>1645.17</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2940.94</t>
+          <t>3035.90</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3078.13</t>
+          <t>3008.39</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2156.14</t>
+          <t>2252.35</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2162.73</t>
+          <t>2002.82</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1724.72</t>
+          <t>1707.24</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1710.49</t>
+          <t>1698.21</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1588.22</t>
+          <t>1654.00</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1590.50</t>
+          <t>1638.86</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2942.86</t>
+          <t>3028.43</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3079.62</t>
+          <t>3002.82</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2157.40</t>
+          <t>2252.61</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2176.24</t>
+          <t>1957.80</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1727.43</t>
+          <t>1702.56</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1713.32</t>
+          <t>1692.92</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1613.65</t>
+          <t>1626.44</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1594.49</t>
+          <t>1616.06</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2981.75</t>
+          <t>3030.90</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3080.09</t>
+          <t>3002.26</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2174.57</t>
+          <t>2260.88</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2184.67</t>
+          <t>2211.05</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1730.63</t>
+          <t>1702.39</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1710.22</t>
+          <t>1690.26</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1607.95</t>
+          <t>1632.11</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1605.33</t>
+          <t>1616.67</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2987.31</t>
+          <t>3033.11</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3083.95</t>
+          <t>3007.58</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2141.15</t>
+          <t>2277.79</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2196.84</t>
+          <t>2212.85</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1732.11</t>
+          <t>1709.48</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1711.91</t>
+          <t>1697.12</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1617.41</t>
+          <t>1640.37</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1604.87</t>
+          <t>1628.08</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3063.99</t>
+          <t>3114.24</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3335.98</t>
+          <t>3185.67</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2284.38</t>
+          <t>2309.78</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2290.89</t>
+          <t>2303.25</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1812.75</t>
+          <t>1791.44</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1799.45</t>
+          <t>1779.87</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1688.48</t>
+          <t>1719.38</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1675.95</t>
+          <t>1701.11</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3864.05</t>
+          <t>3766.48</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3905.54</t>
+          <t>3717.72</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3113.16</t>
+          <t>2971.76</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2715.37</t>
+          <t>2538.53</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2265.71</t>
+          <t>2178.14</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2231.61</t>
+          <t>2155.08</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2341.02</t>
+          <t>2297.49</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2347.22</t>
+          <t>2299.58</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1887.68</t>
+          <t>1536.80</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2030.18</t>
+          <t>1645.31</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>572.15</t>
+          <t>387.68</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1776.19</t>
+          <t>1440.23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1272.90</t>
+          <t>966.65</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1270.85</t>
+          <t>962.61</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1198.54</t>
+          <t>938.50</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1230.07</t>
+          <t>1005.43</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2397.44</t>
+          <t>2086.15</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2719.58</t>
+          <t>2278.88</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1974.03</t>
+          <t>1674.61</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1992.48</t>
+          <t>1631.88</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1532.83</t>
+          <t>1208.74</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1524.30</t>
+          <t>1204.24</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1338.77</t>
+          <t>1081.82</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1340.08</t>
+          <t>1092.50</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2387.60</t>
+          <t>2082.86</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2725.28</t>
+          <t>2268.45</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1950.26</t>
+          <t>1610.60</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1993.79</t>
+          <t>1625.26</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1538.53</t>
+          <t>1206.27</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1530.36</t>
+          <t>1202.47</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1343.16</t>
+          <t>1095.34</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1337.61</t>
+          <t>1094.94</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2395.25</t>
+          <t>2079.62</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2728.57</t>
+          <t>2264.21</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1949.57</t>
+          <t>1595.17</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2036.68</t>
+          <t>1617.14</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1545.58</t>
+          <t>1206.81</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1545.46</t>
+          <t>1203.33</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1349.24</t>
+          <t>1099.58</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1342.83</t>
+          <t>1094.40</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2398.68</t>
+          <t>2077.31</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2731.65</t>
+          <t>2261.47</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1950.39</t>
+          <t>1590.55</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2043.37</t>
+          <t>1617.28</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1557.35</t>
+          <t>1204.79</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1548.55</t>
+          <t>1204.45</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1356.20</t>
+          <t>1077.12</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1349.28</t>
+          <t>1094.33</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2402.54</t>
+          <t>2075.51</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2734.78</t>
+          <t>2259.42</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1952.55</t>
+          <t>1589.15</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2049.76</t>
+          <t>1612.30</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1560.10</t>
+          <t>1204.47</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1551.42</t>
+          <t>1205.49</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1362.96</t>
+          <t>1075.97</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1355.74</t>
+          <t>1094.58</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2407.14</t>
+          <t>2074.58</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2738.48</t>
+          <t>2258.34</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1955.66</t>
+          <t>1593.24</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2056.27</t>
+          <t>1608.37</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1563.44</t>
+          <t>1204.74</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1554.86</t>
+          <t>1206.55</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1369.69</t>
+          <t>1078.70</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1361.74</t>
+          <t>1095.19</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2416.59</t>
+          <t>2078.21</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2754.24</t>
+          <t>2262.35</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1971.92</t>
+          <t>1595.46</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2068.33</t>
+          <t>1607.80</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1572.26</t>
+          <t>1208.28</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1563.79</t>
+          <t>1210.13</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1380.15</t>
+          <t>1084.21</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1371.61</t>
+          <t>1099.35</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2500.67</t>
+          <t>2154.25</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2620.97</t>
+          <t>2260.15</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2089.11</t>
+          <t>1621.71</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2150.87</t>
+          <t>1672.07</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1646.99</t>
+          <t>1251.56</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1635.52</t>
+          <t>1264.78</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1449.53</t>
+          <t>1136.98</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1440.16</t>
+          <t>1135.28</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3121.48</t>
+          <t>2725.52</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3216.88</t>
+          <t>2809.39</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2459.33</t>
+          <t>2118.71</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2505.65</t>
+          <t>2105.57</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1977.47</t>
+          <t>1614.74</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1956.70</t>
+          <t>1593.06</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1951.32</t>
+          <t>1617.16</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1957.98</t>
+          <t>1627.69</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2159.01</t>
+          <t>2267.20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2309.89</t>
+          <t>2288.34</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1764.02</t>
+          <t>1510.35</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1972.29</t>
+          <t>1986.51</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1481.11</t>
+          <t>1454.44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1470.44</t>
+          <t>1444.78</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1437.04</t>
+          <t>1497.69</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1469.20</t>
+          <t>1534.29</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3001.95</t>
+          <t>3135.10</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3035.15</t>
+          <t>3080.30</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2232.88</t>
+          <t>2323.50</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2204.79</t>
+          <t>2259.45</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1764.23</t>
+          <t>1720.37</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1750.17</t>
+          <t>1705.44</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1610.11</t>
+          <t>1641.16</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1608.36</t>
+          <t>1642.52</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2997.78</t>
+          <t>3143.58</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3064.64</t>
+          <t>3098.13</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2192.93</t>
+          <t>2312.09</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2206.88</t>
+          <t>2284.21</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1783.42</t>
+          <t>1678.97</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1768.43</t>
+          <t>1666.06</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1615.96</t>
+          <t>1656.43</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1617.62</t>
+          <t>1645.16</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2987.12</t>
+          <t>3136.38</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3075.75</t>
+          <t>3094.67</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2192.02</t>
+          <t>2303.92</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2247.89</t>
+          <t>2284.38</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1789.07</t>
+          <t>1719.91</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1779.38</t>
+          <t>1682.62</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1615.43</t>
+          <t>1656.59</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1615.72</t>
+          <t>1645.17</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2984.94</t>
+          <t>3118.28</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3078.13</t>
+          <t>3089.23</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2188.92</t>
+          <t>2299.65</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2248.42</t>
+          <t>2291.55</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1728.06</t>
+          <t>1750.67</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1767.43</t>
+          <t>1712.85</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1599.72</t>
+          <t>1661.93</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1601.25</t>
+          <t>1641.90</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2982.59</t>
+          <t>3106.68</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3079.62</t>
+          <t>3058.73</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2189.01</t>
+          <t>2306.83</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2253.80</t>
+          <t>2240.22</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1727.65</t>
+          <t>1747.52</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1715.95</t>
+          <t>1735.09</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1613.65</t>
+          <t>1687.43</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1594.49</t>
+          <t>1668.64</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2981.75</t>
+          <t>3093.67</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3080.09</t>
+          <t>3056.25</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2190.02</t>
+          <t>2373.39</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2259.17</t>
+          <t>2238.23</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1739.30</t>
+          <t>1748.62</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1726.74</t>
+          <t>1735.75</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1607.95</t>
+          <t>1632.11</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1605.33</t>
+          <t>1620.11</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2987.31</t>
+          <t>3098.64</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3083.95</t>
+          <t>3058.46</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2203.02</t>
+          <t>2324.84</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2270.34</t>
+          <t>2242.37</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1751.43</t>
+          <t>1755.32</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1737.07</t>
+          <t>1742.50</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1617.41</t>
+          <t>1640.37</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1604.87</t>
+          <t>1628.08</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3071.43</t>
+          <t>3185.66</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3335.98</t>
+          <t>3273.63</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2327.00</t>
+          <t>2322.13</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2358.79</t>
+          <t>2315.90</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1841.16</t>
+          <t>1829.43</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1864.41</t>
+          <t>1816.74</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1688.48</t>
+          <t>1719.38</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1675.95</t>
+          <t>1701.11</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3889.05</t>
+          <t>3960.21</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3905.54</t>
+          <t>3925.98</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3113.16</t>
+          <t>3121.75</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2773.57</t>
+          <t>2735.50</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2273.67</t>
+          <t>2193.58</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2241.89</t>
+          <t>2164.18</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2341.02</t>
+          <t>2379.78</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2347.22</t>
+          <t>2385.36</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
